--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>863040.9658441523</v>
+        <v>857987.2911295306</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24104047.79063755</v>
+        <v>24104047.79063754</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5673586.333397395</v>
+        <v>5673586.333397394</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>285.807623447931</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>84.99499061398264</v>
       </c>
       <c r="T11" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U11" t="n">
-        <v>19.45806335067719</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>82.63860355128335</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>94.33484597207223</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
@@ -1502,10 +1502,10 @@
         <v>85.56893955755871</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U12" t="n">
-        <v>129.2912218519972</v>
+        <v>195.3017141927292</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1514,7 +1514,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>147.1810662869636</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -1542,7 +1542,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>139.5473206610679</v>
@@ -1578,25 +1578,25 @@
         <v>41.10931561104034</v>
       </c>
       <c r="S13" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.40526381436604</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>226.4170149160602</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H14" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I14" t="n">
-        <v>2.701627844419818</v>
+        <v>2.701627844419832</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>34.33267195709172</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>93.59923004482025</v>
       </c>
       <c r="G15" t="n">
         <v>104.7712654402038</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>19.55844721682657</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U15" t="n">
         <v>195.3017141927292</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>83.32919898036005</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T16" t="n">
-        <v>233.0375990857039</v>
+        <v>114.130022277194</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>230.042355026963</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>226.4228787941246</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>2.701627844419818</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1928,19 +1928,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>52.45700824275999</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>153.1173860389223</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3017141927292</v>
+        <v>177.4709615734348</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>107.0647609521967</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>209.3488204400614</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>16.40985878747441</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.701627844419832</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>84.99499061398264</v>
       </c>
       <c r="T20" t="n">
-        <v>97.15194595307938</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.58006396938444</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
@@ -2174,7 +2174,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>58.94334016289027</v>
@@ -2219,7 +2219,7 @@
         <v>195.3017141927292</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>97.21779879744587</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -2228,7 +2228,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -2253,13 +2253,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>234.078303789271</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>233.2270941511592</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>275.0917310080767</v>
+        <v>73.51851975701413</v>
       </c>
       <c r="I23" t="n">
         <v>2.701627844419832</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U23" t="n">
         <v>254.3180969423526</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>104.7712654402038</v>
+        <v>79.08260763742872</v>
       </c>
       <c r="H24" t="n">
         <v>58.94334016289027</v>
@@ -2459,7 +2459,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>77.5418977589387</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>20.84936408286339</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>123.0365058413561</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9176257340516</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>98.01419973443379</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>84.99499061398264</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>194.7833571031882</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
         <v>132.6551205385437</v>
@@ -2645,10 +2645,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>83.4867295326703</v>
+        <v>52.45700824275999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>139.5473206610679</v>
       </c>
       <c r="I28" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>61.34328467174026</v>
+        <v>152.8716238941888</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>84.99499061398264</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>186.4099417980624</v>
       </c>
       <c r="Y29" t="n">
-        <v>125.3037387465271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>30.15566678099832</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>30.15566678099768</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>153.1173860389223</v>
@@ -2952,7 +2952,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>107.0647609521966</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>43.40960058039339</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U31" t="n">
         <v>279.9176257340516</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>84.99499061398264</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>117.9989598870194</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>80.06486761974175</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>51.38987352013226</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>153.1173860389223</v>
       </c>
       <c r="U33" t="n">
-        <v>139.8884414161681</v>
+        <v>195.3017141927292</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>10.80281932147305</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>41.10931561104034</v>
       </c>
       <c r="S34" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>155.5859842442602</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>226.4228787941246</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.701627844419832</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.99499061398264</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.5842916762861</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>328.4459774214346</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>30.15566678099832</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>30.15566678099814</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>153.1173860389223</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>64.69586507537015</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>210.5104154433383</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.701627844419832</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.99499061398264</v>
+        <v>19.45806335067696</v>
       </c>
       <c r="T38" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>55.08279119883879</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>52.45700824275956</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>30.15566678099832</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>153.1173860389223</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3672,7 +3672,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>46.75313312444472</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>41.10931561104034</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>177.9430544549237</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>143.8817812201067</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>344.6598860649661</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.701627844419832</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>84.99499061398264</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,19 +3824,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>60.31491342624081</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>52.45700824275956</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.56893955755872</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T42" t="n">
         <v>153.1173860389223</v>
@@ -3900,7 +3900,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>43.4096005803931</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T43" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9176257340516</v>
+        <v>208.6918871554824</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>111.900970844103</v>
+        <v>66.70764352332661</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.701627844419846</v>
+        <v>2.701627844419832</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>84.99499061398264</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>71.16302986564268</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
@@ -4073,7 +4073,7 @@
         <v>104.7712654402038</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T45" t="n">
         <v>153.1173860389223</v>
@@ -4118,10 +4118,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>136.4852379218287</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.10931561104034</v>
       </c>
       <c r="S46" t="n">
-        <v>143.0169130411634</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.0375990857039</v>
@@ -4194,16 +4194,16 @@
         <v>279.9176257340516</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>234.9140350453683</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1569.388422391211</v>
+        <v>1162.829202434705</v>
       </c>
       <c r="C11" t="n">
-        <v>1569.388422391211</v>
+        <v>1162.829202434705</v>
       </c>
       <c r="D11" t="n">
-        <v>1569.388422391211</v>
+        <v>1162.829202434705</v>
       </c>
       <c r="E11" t="n">
-        <v>1155.048206908108</v>
+        <v>748.4889869516014</v>
       </c>
       <c r="F11" t="n">
-        <v>734.0177948617957</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="G11" t="n">
         <v>327.4585749052889</v>
@@ -5044,22 +5044,22 @@
         <v>143.8778192802974</v>
       </c>
       <c r="K11" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887695</v>
       </c>
       <c r="L11" t="n">
         <v>567.0076014019883</v>
       </c>
       <c r="M11" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N11" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O11" t="n">
-        <v>1401.218439165989</v>
+        <v>1401.21843916599</v>
       </c>
       <c r="P11" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q11" t="n">
         <v>1754.652407274058</v>
@@ -5068,25 +5068,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S11" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T11" t="n">
-        <v>1589.04303183634</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U11" t="n">
-        <v>1569.388422391211</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="V11" t="n">
-        <v>1569.388422391211</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="W11" t="n">
-        <v>1569.388422391211</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="X11" t="n">
-        <v>1569.388422391211</v>
+        <v>1162.829202434705</v>
       </c>
       <c r="Y11" t="n">
-        <v>1569.388422391211</v>
+        <v>1162.829202434705</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>36.03508875139924</v>
       </c>
       <c r="J12" t="n">
-        <v>92.64425224016347</v>
+        <v>336.3126562147967</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0510332309564</v>
+        <v>464.7194372055897</v>
       </c>
       <c r="L12" t="n">
-        <v>412.4704258219192</v>
+        <v>656.1388297965525</v>
       </c>
       <c r="M12" t="n">
-        <v>723.4930578498861</v>
+        <v>887.3557638905124</v>
       </c>
       <c r="N12" t="n">
-        <v>966.6651173727307</v>
+        <v>1130.527823413357</v>
       </c>
       <c r="O12" t="n">
-        <v>1180.121027262668</v>
+        <v>1343.983733303295</v>
       </c>
       <c r="P12" t="n">
-        <v>1343.608321726251</v>
+        <v>1507.471027766877</v>
       </c>
       <c r="Q12" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R12" t="n">
         <v>1801.754437569962</v>
@@ -5150,22 +5150,22 @@
         <v>1715.3211652896</v>
       </c>
       <c r="T12" t="n">
-        <v>1715.3211652896</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U12" t="n">
-        <v>1584.723971499704</v>
+        <v>1363.382680207123</v>
       </c>
       <c r="V12" t="n">
-        <v>1371.012444492737</v>
+        <v>1149.671153200157</v>
       </c>
       <c r="W12" t="n">
-        <v>1157.779276229066</v>
+        <v>936.4379849364858</v>
       </c>
       <c r="X12" t="n">
-        <v>981.4532943679591</v>
+        <v>936.4379849364858</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0513347317891</v>
+        <v>777.0360253003158</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1086.48561947764</v>
+        <v>738.2879225173018</v>
       </c>
       <c r="C13" t="n">
-        <v>915.3922470393566</v>
+        <v>589.6201787930961</v>
       </c>
       <c r="D13" t="n">
-        <v>755.8976023622665</v>
+        <v>589.6201787930961</v>
       </c>
       <c r="E13" t="n">
-        <v>594.9867872305859</v>
+        <v>428.7093636614156</v>
       </c>
       <c r="F13" t="n">
-        <v>430.3556613411772</v>
+        <v>264.0782377720069</v>
       </c>
       <c r="G13" t="n">
         <v>264.0782377720069</v>
@@ -5199,25 +5199,25 @@
         <v>36.03508875139924</v>
       </c>
       <c r="J13" t="n">
-        <v>52.53617997680179</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K13" t="n">
-        <v>111.5999293467746</v>
+        <v>382.8814865638251</v>
       </c>
       <c r="L13" t="n">
-        <v>513.2721529075728</v>
+        <v>784.5537101246232</v>
       </c>
       <c r="M13" t="n">
-        <v>952.0181985085012</v>
+        <v>878.3334062112662</v>
       </c>
       <c r="N13" t="n">
-        <v>1378.784622469625</v>
+        <v>973.0655287248048</v>
       </c>
       <c r="O13" t="n">
-        <v>1722.536713467443</v>
+        <v>1335.365269788488</v>
       </c>
       <c r="P13" t="n">
-        <v>1782.648915084767</v>
+        <v>1656.37495487893</v>
       </c>
       <c r="Q13" t="n">
         <v>1801.754437569962</v>
@@ -5226,25 +5226,25 @@
         <v>1760.229876346689</v>
       </c>
       <c r="S13" t="n">
-        <v>1590.794278295998</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="T13" t="n">
-        <v>1355.402764068014</v>
+        <v>1524.838362118705</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.402764068014</v>
+        <v>1242.093285619663</v>
       </c>
       <c r="V13" t="n">
-        <v>1355.402764068014</v>
+        <v>1242.093285619663</v>
       </c>
       <c r="W13" t="n">
-        <v>1355.402764068014</v>
+        <v>963.0236211285371</v>
       </c>
       <c r="X13" t="n">
-        <v>1355.402764068014</v>
+        <v>963.0236211285371</v>
       </c>
       <c r="Y13" t="n">
-        <v>1274.185325871684</v>
+        <v>738.2879225173018</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1391.533257905473</v>
+        <v>1144.142385548525</v>
       </c>
       <c r="C14" t="n">
-        <v>1391.533257905473</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="D14" t="n">
-        <v>1391.533257905473</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="E14" t="n">
-        <v>977.1930424223692</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="F14" t="n">
-        <v>556.1626303760568</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="G14" t="n">
         <v>327.4585749052889</v>
       </c>
       <c r="H14" t="n">
-        <v>38.76400576596472</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I14" t="n">
         <v>36.03508875139924</v>
       </c>
       <c r="J14" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K14" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887691</v>
       </c>
       <c r="L14" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M14" t="n">
-        <v>847.9396778919403</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N14" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O14" t="n">
-        <v>1401.21843916599</v>
+        <v>1401.218439165989</v>
       </c>
       <c r="P14" t="n">
-        <v>1614.212614402881</v>
+        <v>1614.21261440288</v>
       </c>
       <c r="Q14" t="n">
         <v>1754.652407274058</v>
@@ -5305,25 +5305,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S14" t="n">
-        <v>1801.754437569962</v>
+        <v>1767.074970946637</v>
       </c>
       <c r="T14" t="n">
-        <v>1801.754437569962</v>
+        <v>1554.363565213015</v>
       </c>
       <c r="U14" t="n">
-        <v>1801.754437569962</v>
+        <v>1554.363565213015</v>
       </c>
       <c r="V14" t="n">
-        <v>1801.754437569962</v>
+        <v>1554.363565213015</v>
       </c>
       <c r="W14" t="n">
-        <v>1801.754437569962</v>
+        <v>1554.363565213015</v>
       </c>
       <c r="X14" t="n">
-        <v>1801.754437569962</v>
+        <v>1554.363565213015</v>
       </c>
       <c r="Y14" t="n">
-        <v>1801.754437569962</v>
+        <v>1554.363565213015</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>681.7483020962025</v>
+        <v>546.8402830839847</v>
       </c>
       <c r="C15" t="n">
-        <v>547.7532308451481</v>
+        <v>412.8452118329304</v>
       </c>
       <c r="D15" t="n">
-        <v>430.8560730645405</v>
+        <v>295.9480540523228</v>
       </c>
       <c r="E15" t="n">
-        <v>310.3632570568685</v>
+        <v>295.9480540523228</v>
       </c>
       <c r="F15" t="n">
         <v>201.403377239373</v>
@@ -5354,31 +5354,31 @@
         <v>36.03508875139924</v>
       </c>
       <c r="I15" t="n">
-        <v>54.86182750109193</v>
+        <v>54.86182750109192</v>
       </c>
       <c r="J15" t="n">
         <v>355.1393949644894</v>
       </c>
       <c r="K15" t="n">
-        <v>483.5461759552824</v>
+        <v>483.5461759552823</v>
       </c>
       <c r="L15" t="n">
-        <v>674.9655685462453</v>
+        <v>674.9655685462451</v>
       </c>
       <c r="M15" t="n">
-        <v>906.1825026402054</v>
+        <v>906.182502640205</v>
       </c>
       <c r="N15" t="n">
         <v>1149.35456216305</v>
       </c>
       <c r="O15" t="n">
-        <v>1362.810472052988</v>
+        <v>1362.810472052987</v>
       </c>
       <c r="P15" t="n">
-        <v>1526.29776651657</v>
+        <v>1612.503176317612</v>
       </c>
       <c r="Q15" t="n">
-        <v>1701.572828547835</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R15" t="n">
         <v>1801.754437569962</v>
@@ -5387,22 +5387,22 @@
         <v>1801.754437569962</v>
       </c>
       <c r="T15" t="n">
-        <v>1781.998430280238</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U15" t="n">
-        <v>1584.723971499704</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V15" t="n">
-        <v>1371.012444492737</v>
+        <v>1236.10442548052</v>
       </c>
       <c r="W15" t="n">
-        <v>1157.779276229066</v>
+        <v>1022.871257216848</v>
       </c>
       <c r="X15" t="n">
-        <v>981.4532943679591</v>
+        <v>846.5452753557413</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0513347317891</v>
+        <v>687.1433157195713</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>450.7940139277425</v>
+        <v>538.0370106482617</v>
       </c>
       <c r="C16" t="n">
-        <v>279.700641489459</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="D16" t="n">
-        <v>120.205996812369</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="E16" t="n">
-        <v>36.03508875139924</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="F16" t="n">
-        <v>36.03508875139924</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="G16" t="n">
         <v>36.03508875139924</v>
@@ -5439,49 +5439,49 @@
         <v>117.5375436081382</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6012929781111</v>
+        <v>382.8814865638251</v>
       </c>
       <c r="L16" t="n">
-        <v>264.2944053038862</v>
+        <v>470.5745988896001</v>
       </c>
       <c r="M16" t="n">
-        <v>703.0404509048146</v>
+        <v>909.3206444905286</v>
       </c>
       <c r="N16" t="n">
-        <v>1129.806874865939</v>
+        <v>1336.087068451653</v>
       </c>
       <c r="O16" t="n">
-        <v>1524.155281252637</v>
+        <v>1461.639229994325</v>
       </c>
       <c r="P16" t="n">
-        <v>1656.37495487893</v>
+        <v>1782.648915084767</v>
       </c>
       <c r="Q16" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R16" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S16" t="n">
-        <v>1760.229876346689</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T16" t="n">
-        <v>1524.838362118705</v>
+        <v>1517.035988734226</v>
       </c>
       <c r="U16" t="n">
-        <v>1242.093285619663</v>
+        <v>1517.035988734226</v>
       </c>
       <c r="V16" t="n">
-        <v>968.2075405591847</v>
+        <v>1243.150243673748</v>
       </c>
       <c r="W16" t="n">
-        <v>689.1378760680591</v>
+        <v>964.0805791826226</v>
       </c>
       <c r="X16" t="n">
-        <v>450.7940139277425</v>
+        <v>725.7367170423061</v>
       </c>
       <c r="Y16" t="n">
-        <v>450.7940139277425</v>
+        <v>725.7367170423061</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1801.754437569962</v>
+        <v>1092.96832629914</v>
       </c>
       <c r="C17" t="n">
-        <v>1801.754437569962</v>
+        <v>1092.96832629914</v>
       </c>
       <c r="D17" t="n">
-        <v>1569.388422391211</v>
+        <v>688.504396392201</v>
       </c>
       <c r="E17" t="n">
-        <v>1155.048206908108</v>
+        <v>459.7944178122772</v>
       </c>
       <c r="F17" t="n">
-        <v>734.0177948617957</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="G17" t="n">
-        <v>327.4585749052889</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="H17" t="n">
         <v>38.76400576596472</v>
@@ -5524,7 +5524,7 @@
         <v>567.0076014019885</v>
       </c>
       <c r="M17" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N17" t="n">
         <v>1135.28612147837</v>
@@ -5542,25 +5542,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S17" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T17" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U17" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="V17" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="W17" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="X17" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="Y17" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>460.407010803622</v>
+        <v>564.8511443155949</v>
       </c>
       <c r="C18" t="n">
-        <v>326.4119395525677</v>
+        <v>430.8560730645405</v>
       </c>
       <c r="D18" t="n">
-        <v>209.5147817719601</v>
+        <v>430.8560730645405</v>
       </c>
       <c r="E18" t="n">
-        <v>89.02196576428813</v>
+        <v>310.3632570568685</v>
       </c>
       <c r="F18" t="n">
-        <v>36.03508875139924</v>
+        <v>201.403377239373</v>
       </c>
       <c r="G18" t="n">
-        <v>36.03508875139924</v>
+        <v>95.57381618866215</v>
       </c>
       <c r="H18" t="n">
         <v>36.03508875139924</v>
@@ -5612,34 +5612,34 @@
         <v>1362.810472052988</v>
       </c>
       <c r="P18" t="n">
-        <v>1700.472892794593</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q18" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R18" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S18" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T18" t="n">
-        <v>1560.657138987658</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U18" t="n">
-        <v>1363.382680207123</v>
+        <v>1467.826813719096</v>
       </c>
       <c r="V18" t="n">
-        <v>1149.671153200157</v>
+        <v>1254.11528671213</v>
       </c>
       <c r="W18" t="n">
-        <v>936.4379849364858</v>
+        <v>1040.882118448459</v>
       </c>
       <c r="X18" t="n">
-        <v>760.1120030753787</v>
+        <v>864.5561365873515</v>
       </c>
       <c r="Y18" t="n">
-        <v>600.7100434392087</v>
+        <v>705.1541769511815</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1086.48561947764</v>
+        <v>207.1284611896828</v>
       </c>
       <c r="C19" t="n">
-        <v>915.3922470393566</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="D19" t="n">
-        <v>755.8976023622665</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="E19" t="n">
-        <v>594.9867872305859</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="F19" t="n">
-        <v>430.3556613411772</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G19" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H19" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I19" t="n">
         <v>36.03508875139924</v>
@@ -5679,19 +5679,19 @@
         <v>111.5999293467747</v>
       </c>
       <c r="L19" t="n">
-        <v>420.4707433540223</v>
+        <v>462.6758375186917</v>
       </c>
       <c r="M19" t="n">
-        <v>514.2504394406652</v>
+        <v>901.4218831196201</v>
       </c>
       <c r="N19" t="n">
-        <v>941.0168634017895</v>
+        <v>1328.188307080744</v>
       </c>
       <c r="O19" t="n">
-        <v>1335.365269788488</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P19" t="n">
-        <v>1656.37495487893</v>
+        <v>1782.648915084767</v>
       </c>
       <c r="Q19" t="n">
         <v>1801.754437569962</v>
@@ -5700,25 +5700,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S19" t="n">
-        <v>1801.754437569962</v>
+        <v>1693.608214385925</v>
       </c>
       <c r="T19" t="n">
-        <v>1801.754437569962</v>
+        <v>1693.608214385925</v>
       </c>
       <c r="U19" t="n">
-        <v>1801.754437569962</v>
+        <v>1410.863137886883</v>
       </c>
       <c r="V19" t="n">
-        <v>1801.754437569962</v>
+        <v>1136.977392826405</v>
       </c>
       <c r="W19" t="n">
-        <v>1522.684773078836</v>
+        <v>857.907728335279</v>
       </c>
       <c r="X19" t="n">
-        <v>1311.221318088875</v>
+        <v>619.5638661949624</v>
       </c>
       <c r="Y19" t="n">
-        <v>1086.48561947764</v>
+        <v>394.8281675837271</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>457.0655007977117</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="C20" t="n">
-        <v>457.0655007977117</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="D20" t="n">
-        <v>457.0655007977117</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="E20" t="n">
-        <v>457.0655007977117</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="F20" t="n">
-        <v>36.03508875139924</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="G20" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H20" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I20" t="n">
         <v>36.03508875139924</v>
@@ -5755,13 +5755,13 @@
         <v>143.8778192802974</v>
       </c>
       <c r="K20" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887693</v>
       </c>
       <c r="L20" t="n">
-        <v>567.0076014019883</v>
+        <v>567.007601401988</v>
       </c>
       <c r="M20" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919397</v>
       </c>
       <c r="N20" t="n">
         <v>1135.28612147837</v>
@@ -5770,7 +5770,7 @@
         <v>1401.218439165989</v>
       </c>
       <c r="P20" t="n">
-        <v>1614.212614402881</v>
+        <v>1614.21261440288</v>
       </c>
       <c r="Q20" t="n">
         <v>1754.652407274058</v>
@@ -5782,22 +5782,22 @@
         <v>1715.900911697252</v>
       </c>
       <c r="T20" t="n">
-        <v>1617.767632956768</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U20" t="n">
-        <v>1617.767632956768</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="V20" t="n">
-        <v>1267.930078293249</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="W20" t="n">
-        <v>1267.930078293249</v>
+        <v>862.5422384903618</v>
       </c>
       <c r="X20" t="n">
-        <v>867.2866804622012</v>
+        <v>461.8988406593143</v>
       </c>
       <c r="Y20" t="n">
-        <v>867.2866804622012</v>
+        <v>461.8988406593143</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>681.7483020962025</v>
+        <v>575.9187410454915</v>
       </c>
       <c r="C21" t="n">
-        <v>547.7532308451481</v>
+        <v>441.9236697944372</v>
       </c>
       <c r="D21" t="n">
-        <v>430.8560730645405</v>
+        <v>325.0265120138296</v>
       </c>
       <c r="E21" t="n">
-        <v>310.3632570568685</v>
+        <v>204.5336960061576</v>
       </c>
       <c r="F21" t="n">
-        <v>201.403377239373</v>
+        <v>95.57381618866215</v>
       </c>
       <c r="G21" t="n">
         <v>95.57381618866215</v>
@@ -5837,22 +5837,22 @@
         <v>221.0510332309564</v>
       </c>
       <c r="L21" t="n">
-        <v>566.6937659892853</v>
+        <v>412.4704258219192</v>
       </c>
       <c r="M21" t="n">
-        <v>797.9107000832453</v>
+        <v>643.6873599158791</v>
       </c>
       <c r="N21" t="n">
-        <v>1041.08275960609</v>
+        <v>886.8594194387238</v>
       </c>
       <c r="O21" t="n">
-        <v>1254.538669496028</v>
+        <v>1100.315329328661</v>
       </c>
       <c r="P21" t="n">
-        <v>1700.472892794593</v>
+        <v>1263.802623792244</v>
       </c>
       <c r="Q21" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R21" t="n">
         <v>1801.754437569962</v>
@@ -5867,16 +5867,16 @@
         <v>1363.382680207123</v>
       </c>
       <c r="V21" t="n">
-        <v>1149.671153200157</v>
+        <v>1265.182883442027</v>
       </c>
       <c r="W21" t="n">
-        <v>936.4379849364858</v>
+        <v>1051.949715178355</v>
       </c>
       <c r="X21" t="n">
-        <v>760.1120030753787</v>
+        <v>875.6237333172481</v>
       </c>
       <c r="Y21" t="n">
-        <v>760.1120030753787</v>
+        <v>716.2217736810782</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>915.3922470393566</v>
+        <v>361.5770297724885</v>
       </c>
       <c r="C22" t="n">
-        <v>915.3922470393566</v>
+        <v>361.5770297724885</v>
       </c>
       <c r="D22" t="n">
-        <v>755.8976023622665</v>
+        <v>361.5770297724885</v>
       </c>
       <c r="E22" t="n">
-        <v>594.9867872305859</v>
+        <v>200.666214640808</v>
       </c>
       <c r="F22" t="n">
-        <v>430.3556613411772</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G22" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H22" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I22" t="n">
         <v>36.03508875139924</v>
@@ -5913,19 +5913,19 @@
         <v>117.5375436081382</v>
       </c>
       <c r="K22" t="n">
-        <v>382.8814865638251</v>
+        <v>176.601292978111</v>
       </c>
       <c r="L22" t="n">
-        <v>784.5537101246232</v>
+        <v>264.2944053038861</v>
       </c>
       <c r="M22" t="n">
-        <v>972.5587010940877</v>
+        <v>703.0404509048145</v>
       </c>
       <c r="N22" t="n">
-        <v>1067.290823607626</v>
+        <v>1129.806874865939</v>
       </c>
       <c r="O22" t="n">
-        <v>1461.639229994325</v>
+        <v>1524.155281252637</v>
       </c>
       <c r="P22" t="n">
         <v>1782.648915084767</v>
@@ -5943,19 +5943,19 @@
         <v>1801.754437569962</v>
       </c>
       <c r="U22" t="n">
-        <v>1801.754437569962</v>
+        <v>1565.311706469688</v>
       </c>
       <c r="V22" t="n">
-        <v>1801.754437569962</v>
+        <v>1291.42596140921</v>
       </c>
       <c r="W22" t="n">
-        <v>1566.171514184953</v>
+        <v>1012.356296918085</v>
       </c>
       <c r="X22" t="n">
-        <v>1327.827652044636</v>
+        <v>774.0124347777682</v>
       </c>
       <c r="Y22" t="n">
-        <v>1103.091953433401</v>
+        <v>549.2767361665329</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1144.224073130478</v>
+        <v>948.3957643630715</v>
       </c>
       <c r="C23" t="n">
-        <v>1144.224073130478</v>
+        <v>948.3957643630715</v>
       </c>
       <c r="D23" t="n">
-        <v>1144.224073130478</v>
+        <v>948.3957643630715</v>
       </c>
       <c r="E23" t="n">
-        <v>1144.224073130478</v>
+        <v>534.0555488799682</v>
       </c>
       <c r="F23" t="n">
-        <v>723.1936610841651</v>
+        <v>113.0251368336558</v>
       </c>
       <c r="G23" t="n">
-        <v>316.6344411276584</v>
+        <v>113.0251368336558</v>
       </c>
       <c r="H23" t="n">
         <v>38.76400576596473</v>
@@ -6019,22 +6019,22 @@
         <v>1801.754437569962</v>
       </c>
       <c r="T23" t="n">
-        <v>1801.754437569962</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="U23" t="n">
-        <v>1544.867470961525</v>
+        <v>1332.156065227903</v>
       </c>
       <c r="V23" t="n">
-        <v>1544.867470961525</v>
+        <v>1332.156065227903</v>
       </c>
       <c r="W23" t="n">
-        <v>1544.867470961525</v>
+        <v>948.3957643630715</v>
       </c>
       <c r="X23" t="n">
-        <v>1144.224073130478</v>
+        <v>948.3957643630715</v>
       </c>
       <c r="Y23" t="n">
-        <v>1144.224073130478</v>
+        <v>948.3957643630715</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>681.7483020962025</v>
+        <v>546.8402830839847</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7532308451481</v>
+        <v>412.8452118329304</v>
       </c>
       <c r="D24" t="n">
-        <v>430.8560730645405</v>
+        <v>295.9480540523228</v>
       </c>
       <c r="E24" t="n">
-        <v>310.3632570568685</v>
+        <v>175.4552380446508</v>
       </c>
       <c r="F24" t="n">
-        <v>201.403377239373</v>
+        <v>175.4552380446508</v>
       </c>
       <c r="G24" t="n">
         <v>95.57381618866215</v>
@@ -6071,25 +6071,25 @@
         <v>355.1393949644894</v>
       </c>
       <c r="K24" t="n">
-        <v>483.5461759552823</v>
+        <v>569.7515857563246</v>
       </c>
       <c r="L24" t="n">
-        <v>674.9655685462451</v>
+        <v>761.1709783472875</v>
       </c>
       <c r="M24" t="n">
-        <v>906.182502640205</v>
+        <v>992.3879124412474</v>
       </c>
       <c r="N24" t="n">
-        <v>1149.35456216305</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O24" t="n">
-        <v>1362.810472052987</v>
+        <v>1449.01588185403</v>
       </c>
       <c r="P24" t="n">
-        <v>1700.472892794593</v>
+        <v>1612.503176317612</v>
       </c>
       <c r="Q24" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R24" t="n">
         <v>1801.754437569962</v>
@@ -6104,16 +6104,16 @@
         <v>1449.815952487486</v>
       </c>
       <c r="V24" t="n">
-        <v>1236.104425480519</v>
+        <v>1236.10442548052</v>
       </c>
       <c r="W24" t="n">
-        <v>1157.779276229066</v>
+        <v>1022.871257216848</v>
       </c>
       <c r="X24" t="n">
-        <v>981.4532943679591</v>
+        <v>846.5452753557413</v>
       </c>
       <c r="Y24" t="n">
-        <v>822.0513347317891</v>
+        <v>687.1433157195713</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>368.0392763213633</v>
+        <v>315.2746843737201</v>
       </c>
       <c r="C25" t="n">
-        <v>196.9459038830798</v>
+        <v>144.1813119354366</v>
       </c>
       <c r="D25" t="n">
-        <v>196.9459038830798</v>
+        <v>144.1813119354366</v>
       </c>
       <c r="E25" t="n">
-        <v>36.03508875139924</v>
+        <v>144.1813119354366</v>
       </c>
       <c r="F25" t="n">
-        <v>36.03508875139924</v>
+        <v>144.1813119354366</v>
       </c>
       <c r="G25" t="n">
-        <v>36.03508875139924</v>
+        <v>123.1213482153726</v>
       </c>
       <c r="H25" t="n">
-        <v>36.03508875139924</v>
+        <v>123.1213482153726</v>
       </c>
       <c r="I25" t="n">
         <v>36.03508875139924</v>
@@ -6153,13 +6153,13 @@
         <v>111.5999293467746</v>
       </c>
       <c r="L25" t="n">
-        <v>462.6758375186917</v>
+        <v>513.2721529075728</v>
       </c>
       <c r="M25" t="n">
-        <v>901.4218831196201</v>
+        <v>952.0181985085012</v>
       </c>
       <c r="N25" t="n">
-        <v>1328.188307080744</v>
+        <v>1378.784622469625</v>
       </c>
       <c r="O25" t="n">
         <v>1722.536713467443</v>
@@ -6174,25 +6174,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S25" t="n">
-        <v>1677.475138740309</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T25" t="n">
-        <v>1442.083624512326</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U25" t="n">
-        <v>1159.338548013284</v>
+        <v>1519.00936107092</v>
       </c>
       <c r="V25" t="n">
-        <v>885.4528029528055</v>
+        <v>1245.123616010442</v>
       </c>
       <c r="W25" t="n">
-        <v>606.3831384616799</v>
+        <v>966.0539515193163</v>
       </c>
       <c r="X25" t="n">
-        <v>368.0392763213633</v>
+        <v>727.7100893789998</v>
       </c>
       <c r="Y25" t="n">
-        <v>368.0392763213633</v>
+        <v>502.9743907677645</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>871.405716280815</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="C26" t="n">
-        <v>871.405716280815</v>
+        <v>955.938766347003</v>
       </c>
       <c r="D26" t="n">
-        <v>871.405716280815</v>
+        <v>955.938766347003</v>
       </c>
       <c r="E26" t="n">
-        <v>457.0655007977117</v>
+        <v>541.5985508638997</v>
       </c>
       <c r="F26" t="n">
-        <v>36.03508875139924</v>
+        <v>541.5985508638997</v>
       </c>
       <c r="G26" t="n">
-        <v>36.03508875139924</v>
+        <v>135.039330907393</v>
       </c>
       <c r="H26" t="n">
         <v>36.03508875139924</v>
@@ -6232,10 +6232,10 @@
         <v>326.05521688877</v>
       </c>
       <c r="L26" t="n">
-        <v>567.0076014019887</v>
+        <v>567.0076014019889</v>
       </c>
       <c r="M26" t="n">
-        <v>847.9396778919404</v>
+        <v>847.9396778919406</v>
       </c>
       <c r="N26" t="n">
         <v>1135.28612147837</v>
@@ -6253,25 +6253,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S26" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T26" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="U26" t="n">
-        <v>1605.003571809166</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="V26" t="n">
-        <v>1255.166017145646</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="W26" t="n">
-        <v>871.405716280815</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="X26" t="n">
-        <v>871.405716280815</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="Y26" t="n">
-        <v>871.405716280815</v>
+        <v>1366.063357033733</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>600.7100434392087</v>
+        <v>460.407010803622</v>
       </c>
       <c r="C27" t="n">
-        <v>466.7149721881544</v>
+        <v>326.4119395525677</v>
       </c>
       <c r="D27" t="n">
-        <v>349.8178144075468</v>
+        <v>209.5147817719601</v>
       </c>
       <c r="E27" t="n">
-        <v>229.3249983998748</v>
+        <v>89.02196576428813</v>
       </c>
       <c r="F27" t="n">
-        <v>120.3651185823794</v>
+        <v>89.02196576428813</v>
       </c>
       <c r="G27" t="n">
         <v>36.03508875139924</v>
@@ -6317,13 +6317,13 @@
         <v>906.182502640205</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.559971964092</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O27" t="n">
-        <v>1449.015881854029</v>
+        <v>1362.810472052987</v>
       </c>
       <c r="P27" t="n">
-        <v>1612.503176317612</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q27" t="n">
         <v>1701.572828547835</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>430.3556613411772</v>
+        <v>337.9027934397141</v>
       </c>
       <c r="C28" t="n">
-        <v>430.3556613411772</v>
+        <v>337.9027934397141</v>
       </c>
       <c r="D28" t="n">
-        <v>430.3556613411772</v>
+        <v>337.9027934397141</v>
       </c>
       <c r="E28" t="n">
-        <v>430.3556613411772</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="F28" t="n">
-        <v>430.3556613411772</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="G28" t="n">
-        <v>264.0782377720069</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="H28" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I28" t="n">
         <v>36.03508875139924</v>
       </c>
       <c r="J28" t="n">
-        <v>109.6387822372297</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K28" t="n">
-        <v>374.9827251929166</v>
+        <v>248.7087649870798</v>
       </c>
       <c r="L28" t="n">
-        <v>462.6758375186917</v>
+        <v>336.4018773128549</v>
       </c>
       <c r="M28" t="n">
-        <v>901.4218831196201</v>
+        <v>775.1479229137833</v>
       </c>
       <c r="N28" t="n">
-        <v>1328.188307080744</v>
+        <v>1201.914346874908</v>
       </c>
       <c r="O28" t="n">
-        <v>1722.536713467443</v>
+        <v>1596.262753261606</v>
       </c>
       <c r="P28" t="n">
-        <v>1782.648915084767</v>
+        <v>1656.37495487893</v>
       </c>
       <c r="Q28" t="n">
         <v>1801.754437569962</v>
@@ -6429,7 +6429,7 @@
         <v>492.3185751510159</v>
       </c>
       <c r="Y28" t="n">
-        <v>430.3556613411772</v>
+        <v>337.9027934397141</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1264.963824828172</v>
+        <v>860.4998949212325</v>
       </c>
       <c r="C29" t="n">
-        <v>854.839234141442</v>
+        <v>450.3753042345026</v>
       </c>
       <c r="D29" t="n">
         <v>450.3753042345026</v>
       </c>
       <c r="E29" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="F29" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G29" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H29" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I29" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J29" t="n">
-        <v>143.8778192802976</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K29" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887693</v>
       </c>
       <c r="L29" t="n">
-        <v>567.0076014019883</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M29" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N29" t="n">
         <v>1135.28612147837</v>
@@ -6490,25 +6490,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S29" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T29" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="U29" t="n">
-        <v>1801.754437569962</v>
+        <v>1459.013945088815</v>
       </c>
       <c r="V29" t="n">
-        <v>1801.754437569962</v>
+        <v>1459.013945088815</v>
       </c>
       <c r="W29" t="n">
-        <v>1801.754437569962</v>
+        <v>1459.013945088815</v>
       </c>
       <c r="X29" t="n">
-        <v>1801.754437569962</v>
+        <v>1270.721074585722</v>
       </c>
       <c r="Y29" t="n">
-        <v>1675.185004492661</v>
+        <v>1270.721074585722</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>516.3800136082286</v>
+        <v>546.8402830839844</v>
       </c>
       <c r="C30" t="n">
-        <v>382.3849423571743</v>
+        <v>412.8452118329301</v>
       </c>
       <c r="D30" t="n">
-        <v>265.4877845765667</v>
+        <v>295.9480540523226</v>
       </c>
       <c r="E30" t="n">
-        <v>144.9949685688946</v>
+        <v>175.4552380446505</v>
       </c>
       <c r="F30" t="n">
-        <v>36.03508875139923</v>
+        <v>66.49535822715512</v>
       </c>
       <c r="G30" t="n">
-        <v>36.03508875139923</v>
+        <v>66.49535822715512</v>
       </c>
       <c r="H30" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I30" t="n">
-        <v>36.03508875139923</v>
+        <v>54.86182750109192</v>
       </c>
       <c r="J30" t="n">
-        <v>92.64425224016347</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0510332309564</v>
+        <v>483.5461759552823</v>
       </c>
       <c r="L30" t="n">
-        <v>492.2761237559257</v>
+        <v>674.9655685462451</v>
       </c>
       <c r="M30" t="n">
-        <v>723.4930578498856</v>
+        <v>906.182502640205</v>
       </c>
       <c r="N30" t="n">
-        <v>966.6651173727303</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O30" t="n">
-        <v>1180.121027262668</v>
+        <v>1362.810472052987</v>
       </c>
       <c r="P30" t="n">
-        <v>1343.608321726251</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q30" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R30" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S30" t="n">
-        <v>1771.294168094206</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T30" t="n">
-        <v>1616.630141792265</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U30" t="n">
-        <v>1419.35568301173</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V30" t="n">
-        <v>1205.644156004764</v>
+        <v>1236.104425480519</v>
       </c>
       <c r="W30" t="n">
-        <v>992.4109877410924</v>
+        <v>1022.871257216848</v>
       </c>
       <c r="X30" t="n">
-        <v>816.0850058799853</v>
+        <v>846.5452753557411</v>
       </c>
       <c r="Y30" t="n">
-        <v>656.6830462438153</v>
+        <v>687.1433157195711</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>315.2746843737197</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="C31" t="n">
-        <v>144.1813119354362</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="D31" t="n">
-        <v>144.1813119354362</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="E31" t="n">
-        <v>144.1813119354362</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="F31" t="n">
-        <v>144.1813119354362</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G31" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H31" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I31" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J31" t="n">
-        <v>52.53617997680178</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K31" t="n">
-        <v>111.5999293467746</v>
+        <v>382.8814865638251</v>
       </c>
       <c r="L31" t="n">
-        <v>462.6758375186913</v>
+        <v>784.5537101246232</v>
       </c>
       <c r="M31" t="n">
-        <v>901.4218831196197</v>
+        <v>878.3334062112662</v>
       </c>
       <c r="N31" t="n">
-        <v>1328.188307080744</v>
+        <v>973.0655287248048</v>
       </c>
       <c r="O31" t="n">
-        <v>1722.536713467442</v>
+        <v>1335.365269788488</v>
       </c>
       <c r="P31" t="n">
-        <v>1782.648915084767</v>
+        <v>1656.37495487893</v>
       </c>
       <c r="Q31" t="n">
         <v>1801.754437569962</v>
@@ -6648,25 +6648,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S31" t="n">
-        <v>1801.754437569962</v>
+        <v>1757.906356175625</v>
       </c>
       <c r="T31" t="n">
-        <v>1801.754437569962</v>
+        <v>1522.514841947641</v>
       </c>
       <c r="U31" t="n">
-        <v>1519.00936107092</v>
+        <v>1239.769765448599</v>
       </c>
       <c r="V31" t="n">
-        <v>1245.123616010442</v>
+        <v>965.8840203881211</v>
       </c>
       <c r="W31" t="n">
-        <v>966.0539515193159</v>
+        <v>686.8143558969955</v>
       </c>
       <c r="X31" t="n">
-        <v>727.7100893789993</v>
+        <v>448.4704937566789</v>
       </c>
       <c r="Y31" t="n">
-        <v>502.974390767764</v>
+        <v>223.7347951454436</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>871.405716280815</v>
+        <v>850.6236093450686</v>
       </c>
       <c r="C32" t="n">
-        <v>871.405716280815</v>
+        <v>440.4990186583387</v>
       </c>
       <c r="D32" t="n">
-        <v>871.405716280815</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="E32" t="n">
-        <v>457.0655007977117</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="F32" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G32" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H32" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I32" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J32" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802976</v>
       </c>
       <c r="K32" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887696</v>
       </c>
       <c r="L32" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019884</v>
       </c>
       <c r="M32" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919406</v>
       </c>
       <c r="N32" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O32" t="n">
-        <v>1401.218439165989</v>
+        <v>1401.21843916599</v>
       </c>
       <c r="P32" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q32" t="n">
         <v>1754.652407274058</v>
@@ -6727,25 +6727,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S32" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T32" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="U32" t="n">
-        <v>1682.563568997215</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="V32" t="n">
-        <v>1682.563568997215</v>
+        <v>1635.027308040947</v>
       </c>
       <c r="W32" t="n">
-        <v>1682.563568997215</v>
+        <v>1251.267007176116</v>
       </c>
       <c r="X32" t="n">
-        <v>1682.563568997215</v>
+        <v>850.6236093450686</v>
       </c>
       <c r="Y32" t="n">
-        <v>1281.626895945305</v>
+        <v>850.6236093450686</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>516.3800136082286</v>
+        <v>674.1185378105882</v>
       </c>
       <c r="C33" t="n">
-        <v>382.3849423571743</v>
+        <v>540.1234665595339</v>
       </c>
       <c r="D33" t="n">
-        <v>265.4877845765667</v>
+        <v>423.2263087789263</v>
       </c>
       <c r="E33" t="n">
-        <v>144.9949685688946</v>
+        <v>302.7334927712543</v>
       </c>
       <c r="F33" t="n">
-        <v>36.03508875139923</v>
+        <v>193.7736129537589</v>
       </c>
       <c r="G33" t="n">
-        <v>36.03508875139923</v>
+        <v>87.94405190304799</v>
       </c>
       <c r="H33" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I33" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J33" t="n">
         <v>92.64425224016347</v>
@@ -6806,25 +6806,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S33" t="n">
-        <v>1715.321165289599</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T33" t="n">
-        <v>1560.657138987657</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U33" t="n">
-        <v>1419.35568301173</v>
+        <v>1363.382680207123</v>
       </c>
       <c r="V33" t="n">
-        <v>1205.644156004764</v>
+        <v>1363.382680207123</v>
       </c>
       <c r="W33" t="n">
-        <v>992.4109877410924</v>
+        <v>1150.149511943452</v>
       </c>
       <c r="X33" t="n">
-        <v>816.0850058799853</v>
+        <v>973.8235300823449</v>
       </c>
       <c r="Y33" t="n">
-        <v>656.6830462438153</v>
+        <v>814.4215704461749</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.03508875139923</v>
+        <v>675.2735894471678</v>
       </c>
       <c r="C34" t="n">
-        <v>36.03508875139923</v>
+        <v>504.1802170088843</v>
       </c>
       <c r="D34" t="n">
-        <v>36.03508875139923</v>
+        <v>504.1802170088843</v>
       </c>
       <c r="E34" t="n">
-        <v>36.03508875139923</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="F34" t="n">
-        <v>36.03508875139923</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="G34" t="n">
-        <v>36.03508875139923</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="H34" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I34" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J34" t="n">
-        <v>52.53617997680178</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K34" t="n">
-        <v>111.5999293467746</v>
+        <v>302.8860409327024</v>
       </c>
       <c r="L34" t="n">
-        <v>462.6758375186913</v>
+        <v>390.5791532584774</v>
       </c>
       <c r="M34" t="n">
-        <v>901.4218831196197</v>
+        <v>829.3251988594059</v>
       </c>
       <c r="N34" t="n">
-        <v>1328.188307080744</v>
+        <v>1256.09162282053</v>
       </c>
       <c r="O34" t="n">
-        <v>1722.536713467442</v>
+        <v>1335.365269788488</v>
       </c>
       <c r="P34" t="n">
-        <v>1782.648915084767</v>
+        <v>1656.37495487893</v>
       </c>
       <c r="Q34" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R34" t="n">
-        <v>1801.754437569962</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="S34" t="n">
-        <v>1632.31883951927</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="T34" t="n">
-        <v>1396.927325291286</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="U34" t="n">
-        <v>1239.769765448599</v>
+        <v>1477.484799847647</v>
       </c>
       <c r="V34" t="n">
-        <v>965.8840203881211</v>
+        <v>1203.599054787169</v>
       </c>
       <c r="W34" t="n">
-        <v>686.8143558969955</v>
+        <v>924.5293902960429</v>
       </c>
       <c r="X34" t="n">
-        <v>448.4704937566789</v>
+        <v>686.1855281557264</v>
       </c>
       <c r="Y34" t="n">
-        <v>223.7347951454436</v>
+        <v>686.1855281557264</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1092.96832629914</v>
+        <v>847.0582386148455</v>
       </c>
       <c r="C35" t="n">
-        <v>864.2583477192167</v>
+        <v>847.0582386148455</v>
       </c>
       <c r="D35" t="n">
-        <v>459.7944178122772</v>
+        <v>442.594308707906</v>
       </c>
       <c r="E35" t="n">
-        <v>459.7944178122772</v>
+        <v>442.594308707906</v>
       </c>
       <c r="F35" t="n">
-        <v>38.76400576596473</v>
+        <v>442.594308707906</v>
       </c>
       <c r="G35" t="n">
-        <v>38.76400576596473</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H35" t="n">
-        <v>38.76400576596473</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I35" t="n">
         <v>36.03508875139924</v>
@@ -6940,7 +6940,7 @@
         <v>143.8778192802974</v>
       </c>
       <c r="K35" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887693</v>
       </c>
       <c r="L35" t="n">
         <v>567.0076014019885</v>
@@ -6964,25 +6964,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.900911697252</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T35" t="n">
-        <v>1503.18950596363</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="U35" t="n">
-        <v>1503.18950596363</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="V35" t="n">
-        <v>1503.18950596363</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="W35" t="n">
-        <v>1503.18950596363</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="X35" t="n">
-        <v>1503.18950596363</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="Y35" t="n">
-        <v>1503.18950596363</v>
+        <v>1257.279418279335</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>516.3800136082286</v>
+        <v>546.8402830839844</v>
       </c>
       <c r="C36" t="n">
-        <v>382.3849423571743</v>
+        <v>412.8452118329301</v>
       </c>
       <c r="D36" t="n">
-        <v>265.4877845765667</v>
+        <v>295.9480540523226</v>
       </c>
       <c r="E36" t="n">
-        <v>144.9949685688946</v>
+        <v>175.4552380446505</v>
       </c>
       <c r="F36" t="n">
-        <v>36.03508875139924</v>
+        <v>66.49535822715512</v>
       </c>
       <c r="G36" t="n">
-        <v>36.03508875139924</v>
+        <v>66.49535822715512</v>
       </c>
       <c r="H36" t="n">
         <v>36.03508875139924</v>
       </c>
       <c r="I36" t="n">
-        <v>54.86182750109192</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J36" t="n">
-        <v>111.4709909898561</v>
+        <v>336.3126562147967</v>
       </c>
       <c r="K36" t="n">
-        <v>239.8777719806491</v>
+        <v>464.7194372055897</v>
       </c>
       <c r="L36" t="n">
-        <v>431.2971645716119</v>
+        <v>656.1388297965525</v>
       </c>
       <c r="M36" t="n">
-        <v>877.2313878701775</v>
+        <v>887.3557638905124</v>
       </c>
       <c r="N36" t="n">
-        <v>1120.403447393022</v>
+        <v>1130.527823413357</v>
       </c>
       <c r="O36" t="n">
-        <v>1333.85935728296</v>
+        <v>1343.983733303295</v>
       </c>
       <c r="P36" t="n">
-        <v>1497.346651746542</v>
+        <v>1507.471027766877</v>
       </c>
       <c r="Q36" t="n">
-        <v>1701.572828547835</v>
+        <v>1789.542545024816</v>
       </c>
       <c r="R36" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S36" t="n">
-        <v>1771.294168094206</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T36" t="n">
-        <v>1616.630141792265</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U36" t="n">
-        <v>1419.35568301173</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V36" t="n">
-        <v>1205.644156004764</v>
+        <v>1236.104425480519</v>
       </c>
       <c r="W36" t="n">
-        <v>992.4109877410924</v>
+        <v>1022.871257216848</v>
       </c>
       <c r="X36" t="n">
-        <v>816.0850058799853</v>
+        <v>846.5452753557411</v>
       </c>
       <c r="Y36" t="n">
-        <v>656.6830462438153</v>
+        <v>687.1433157195711</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>598.019760872762</v>
+        <v>673.8574189925773</v>
       </c>
       <c r="C37" t="n">
-        <v>426.9263884344786</v>
+        <v>502.7640465542938</v>
       </c>
       <c r="D37" t="n">
-        <v>426.9263884344786</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="E37" t="n">
-        <v>266.015573302798</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="F37" t="n">
-        <v>101.3844474133893</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="G37" t="n">
-        <v>36.03508875139924</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="H37" t="n">
         <v>36.03508875139924</v>
@@ -7098,22 +7098,22 @@
         <v>52.53617997680179</v>
       </c>
       <c r="K37" t="n">
-        <v>111.5999293467746</v>
+        <v>145.072479999061</v>
       </c>
       <c r="L37" t="n">
-        <v>513.2721529075728</v>
+        <v>546.7447035598592</v>
       </c>
       <c r="M37" t="n">
-        <v>952.0181985085012</v>
+        <v>640.5243996465022</v>
       </c>
       <c r="N37" t="n">
-        <v>1046.75032102204</v>
+        <v>1067.290823607626</v>
       </c>
       <c r="O37" t="n">
-        <v>1441.098727408738</v>
+        <v>1461.639229994325</v>
       </c>
       <c r="P37" t="n">
-        <v>1656.37495487893</v>
+        <v>1782.648915084767</v>
       </c>
       <c r="Q37" t="n">
         <v>1801.754437569962</v>
@@ -7122,25 +7122,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S37" t="n">
-        <v>1801.754437569962</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T37" t="n">
-        <v>1801.754437569962</v>
+        <v>1419.682056243171</v>
       </c>
       <c r="U37" t="n">
-        <v>1801.754437569962</v>
+        <v>1136.936979744129</v>
       </c>
       <c r="V37" t="n">
-        <v>1527.868692509484</v>
+        <v>1136.936979744129</v>
       </c>
       <c r="W37" t="n">
-        <v>1248.799028018358</v>
+        <v>1136.936979744129</v>
       </c>
       <c r="X37" t="n">
-        <v>1010.455165878042</v>
+        <v>898.5931176038126</v>
       </c>
       <c r="Y37" t="n">
-        <v>785.7194672668064</v>
+        <v>673.8574189925773</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>457.0655007977117</v>
+        <v>1569.388422391211</v>
       </c>
       <c r="C38" t="n">
-        <v>457.0655007977117</v>
+        <v>1569.388422391211</v>
       </c>
       <c r="D38" t="n">
-        <v>457.0655007977117</v>
+        <v>1569.388422391211</v>
       </c>
       <c r="E38" t="n">
-        <v>457.0655007977117</v>
+        <v>1155.048206908108</v>
       </c>
       <c r="F38" t="n">
-        <v>36.03508875139923</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="G38" t="n">
-        <v>36.03508875139923</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="H38" t="n">
-        <v>36.03508875139923</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I38" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J38" t="n">
         <v>143.8778192802976</v>
@@ -7180,7 +7180,7 @@
         <v>326.0552168887696</v>
       </c>
       <c r="L38" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019884</v>
       </c>
       <c r="M38" t="n">
         <v>847.9396778919402</v>
@@ -7201,25 +7201,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.900911697252</v>
+        <v>1782.099828124834</v>
       </c>
       <c r="T38" t="n">
-        <v>1503.189505963629</v>
+        <v>1569.388422391211</v>
       </c>
       <c r="U38" t="n">
-        <v>1246.302539355192</v>
+        <v>1569.388422391211</v>
       </c>
       <c r="V38" t="n">
-        <v>896.4649846916732</v>
+        <v>1569.388422391211</v>
       </c>
       <c r="W38" t="n">
-        <v>512.7046838268418</v>
+        <v>1569.388422391211</v>
       </c>
       <c r="X38" t="n">
-        <v>457.0655007977117</v>
+        <v>1569.388422391211</v>
       </c>
       <c r="Y38" t="n">
-        <v>457.0655007977117</v>
+        <v>1569.388422391211</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>460.4070108036216</v>
+        <v>546.8402830839844</v>
       </c>
       <c r="C39" t="n">
-        <v>326.4119395525673</v>
+        <v>412.8452118329301</v>
       </c>
       <c r="D39" t="n">
-        <v>209.5147817719597</v>
+        <v>295.9480540523226</v>
       </c>
       <c r="E39" t="n">
-        <v>89.02196576428767</v>
+        <v>175.4552380446505</v>
       </c>
       <c r="F39" t="n">
-        <v>36.03508875139923</v>
+        <v>66.49535822715512</v>
       </c>
       <c r="G39" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H39" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I39" t="n">
-        <v>54.86182750109191</v>
+        <v>54.86182750109192</v>
       </c>
       <c r="J39" t="n">
         <v>355.1393949644894</v>
@@ -7274,31 +7274,31 @@
         <v>1526.29776651657</v>
       </c>
       <c r="Q39" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R39" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S39" t="n">
-        <v>1715.321165289599</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T39" t="n">
-        <v>1560.657138987657</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U39" t="n">
-        <v>1363.382680207123</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V39" t="n">
-        <v>1149.671153200157</v>
+        <v>1236.104425480519</v>
       </c>
       <c r="W39" t="n">
-        <v>936.4379849364853</v>
+        <v>1022.871257216848</v>
       </c>
       <c r="X39" t="n">
-        <v>760.1120030753782</v>
+        <v>846.5452753557411</v>
       </c>
       <c r="Y39" t="n">
-        <v>600.7100434392082</v>
+        <v>687.1433157195711</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>692.165046887862</v>
+        <v>574.7593079928419</v>
       </c>
       <c r="C40" t="n">
-        <v>521.0716744495785</v>
+        <v>403.6659355545584</v>
       </c>
       <c r="D40" t="n">
-        <v>361.5770297724885</v>
+        <v>244.1712908774684</v>
       </c>
       <c r="E40" t="n">
-        <v>200.666214640808</v>
+        <v>83.26047574578786</v>
       </c>
       <c r="F40" t="n">
-        <v>36.03508875139923</v>
+        <v>83.26047574578786</v>
       </c>
       <c r="G40" t="n">
-        <v>36.03508875139923</v>
+        <v>83.26047574578786</v>
       </c>
       <c r="H40" t="n">
-        <v>36.03508875139923</v>
+        <v>83.26047574578786</v>
       </c>
       <c r="I40" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J40" t="n">
-        <v>117.5375436081382</v>
+        <v>52.53617997680179</v>
       </c>
       <c r="K40" t="n">
-        <v>176.601292978111</v>
+        <v>111.5999293467746</v>
       </c>
       <c r="L40" t="n">
-        <v>462.6758375186913</v>
+        <v>513.2721529075728</v>
       </c>
       <c r="M40" t="n">
-        <v>901.4218831196197</v>
+        <v>640.5243996465022</v>
       </c>
       <c r="N40" t="n">
-        <v>1328.188307080744</v>
+        <v>1067.290823607626</v>
       </c>
       <c r="O40" t="n">
-        <v>1722.536713467442</v>
+        <v>1461.639229994325</v>
       </c>
       <c r="P40" t="n">
         <v>1782.648915084767</v>
@@ -7356,28 +7356,28 @@
         <v>1801.754437569962</v>
       </c>
       <c r="R40" t="n">
-        <v>1801.754437569962</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="S40" t="n">
-        <v>1801.754437569962</v>
+        <v>1590.794278295997</v>
       </c>
       <c r="T40" t="n">
-        <v>1801.754437569962</v>
+        <v>1590.794278295997</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.013978524584</v>
+        <v>1590.794278295997</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.013978524584</v>
+        <v>1316.908533235519</v>
       </c>
       <c r="W40" t="n">
-        <v>1342.944314033458</v>
+        <v>1037.838868744394</v>
       </c>
       <c r="X40" t="n">
-        <v>1104.600451893142</v>
+        <v>799.4950066040772</v>
       </c>
       <c r="Y40" t="n">
-        <v>879.8647532819064</v>
+        <v>574.7593079928419</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1000.174366687004</v>
+        <v>1503.189505963629</v>
       </c>
       <c r="C41" t="n">
-        <v>854.839234141442</v>
+        <v>1503.189505963629</v>
       </c>
       <c r="D41" t="n">
-        <v>450.3753042345026</v>
+        <v>1503.189505963629</v>
       </c>
       <c r="E41" t="n">
-        <v>36.03508875139924</v>
+        <v>1155.048206908108</v>
       </c>
       <c r="F41" t="n">
-        <v>36.03508875139924</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="G41" t="n">
-        <v>36.03508875139924</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="H41" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I41" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="J41" t="n">
-        <v>143.8778192802976</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K41" t="n">
-        <v>326.0552168887695</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L41" t="n">
-        <v>567.0076014019883</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M41" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N41" t="n">
         <v>1135.28612147837</v>
@@ -7432,31 +7432,31 @@
         <v>1614.21261440288</v>
       </c>
       <c r="Q41" t="n">
-        <v>1754.652407274057</v>
+        <v>1754.652407274058</v>
       </c>
       <c r="R41" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S41" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T41" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.189505963629</v>
       </c>
       <c r="U41" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.189505963629</v>
       </c>
       <c r="V41" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.189505963629</v>
       </c>
       <c r="W41" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.189505963629</v>
       </c>
       <c r="X41" t="n">
-        <v>1401.111039738914</v>
+        <v>1503.189505963629</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000.174366687004</v>
+        <v>1503.189505963629</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>460.4070108036218</v>
+        <v>460.4070108036216</v>
       </c>
       <c r="C42" t="n">
-        <v>326.4119395525675</v>
+        <v>326.4119395525673</v>
       </c>
       <c r="D42" t="n">
-        <v>326.4119395525675</v>
+        <v>209.5147817719597</v>
       </c>
       <c r="E42" t="n">
-        <v>205.9191235448955</v>
+        <v>89.02196576428767</v>
       </c>
       <c r="F42" t="n">
-        <v>96.95924372740006</v>
+        <v>89.02196576428767</v>
       </c>
       <c r="G42" t="n">
-        <v>36.03508875139924</v>
+        <v>89.02196576428767</v>
       </c>
       <c r="H42" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="I42" t="n">
-        <v>36.03508875139924</v>
+        <v>54.86182750109191</v>
       </c>
       <c r="J42" t="n">
-        <v>92.64425224016345</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0510332309564</v>
+        <v>483.5461759552823</v>
       </c>
       <c r="L42" t="n">
-        <v>412.4704258219191</v>
+        <v>674.9655685462451</v>
       </c>
       <c r="M42" t="n">
-        <v>643.687359915879</v>
+        <v>906.182502640205</v>
       </c>
       <c r="N42" t="n">
-        <v>886.8594194387236</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O42" t="n">
-        <v>1100.315329328661</v>
+        <v>1362.810472052987</v>
       </c>
       <c r="P42" t="n">
-        <v>1263.802623792244</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q42" t="n">
-        <v>1709.736847090809</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R42" t="n">
         <v>1801.754437569962</v>
@@ -7520,7 +7520,7 @@
         <v>1715.321165289599</v>
       </c>
       <c r="T42" t="n">
-        <v>1560.657138987658</v>
+        <v>1560.657138987657</v>
       </c>
       <c r="U42" t="n">
         <v>1363.382680207123</v>
@@ -7529,13 +7529,13 @@
         <v>1149.671153200157</v>
       </c>
       <c r="W42" t="n">
-        <v>936.4379849364856</v>
+        <v>936.4379849364853</v>
       </c>
       <c r="X42" t="n">
-        <v>760.1120030753784</v>
+        <v>760.1120030753782</v>
       </c>
       <c r="Y42" t="n">
-        <v>600.7100434392084</v>
+        <v>600.7100434392082</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79.8831701457357</v>
+        <v>207.1284611896827</v>
       </c>
       <c r="C43" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="D43" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="E43" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="F43" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="G43" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="H43" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="I43" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="J43" t="n">
-        <v>52.53617997680177</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K43" t="n">
-        <v>111.5999293467746</v>
+        <v>382.8814865638251</v>
       </c>
       <c r="L43" t="n">
-        <v>462.6758375186919</v>
+        <v>470.5745988896001</v>
       </c>
       <c r="M43" t="n">
-        <v>901.4218831196202</v>
+        <v>909.3206444905286</v>
       </c>
       <c r="N43" t="n">
-        <v>1328.188307080744</v>
+        <v>1336.087068451653</v>
       </c>
       <c r="O43" t="n">
-        <v>1722.536713467443</v>
+        <v>1596.262753261605</v>
       </c>
       <c r="P43" t="n">
-        <v>1782.648915084767</v>
+        <v>1656.37495487893</v>
       </c>
       <c r="Q43" t="n">
         <v>1801.754437569962</v>
@@ -7596,25 +7596,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S43" t="n">
-        <v>1801.754437569962</v>
+        <v>1632.31883951927</v>
       </c>
       <c r="T43" t="n">
-        <v>1566.362923341978</v>
+        <v>1396.927325291286</v>
       </c>
       <c r="U43" t="n">
-        <v>1283.617846842936</v>
+        <v>1186.127439275647</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.732101782458</v>
+        <v>912.2416942151694</v>
       </c>
       <c r="W43" t="n">
-        <v>730.662437291332</v>
+        <v>633.1720297240438</v>
       </c>
       <c r="X43" t="n">
-        <v>492.3185751510154</v>
+        <v>394.8281675837271</v>
       </c>
       <c r="Y43" t="n">
-        <v>267.5828765397801</v>
+        <v>394.8281675837271</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1688.72315388905</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.59856320232</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="D44" t="n">
-        <v>874.1346332953805</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="E44" t="n">
-        <v>459.7944178122772</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="F44" t="n">
-        <v>38.76400576596474</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="G44" t="n">
-        <v>38.76400576596474</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="H44" t="n">
-        <v>38.76400576596474</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I44" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="J44" t="n">
         <v>143.8778192802976</v>
       </c>
       <c r="K44" t="n">
-        <v>326.0552168887695</v>
+        <v>326.0552168887696</v>
       </c>
       <c r="L44" t="n">
         <v>567.0076014019883</v>
@@ -7675,25 +7675,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S44" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T44" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.189505963629</v>
       </c>
       <c r="U44" t="n">
-        <v>1801.754437569962</v>
+        <v>1246.302539355192</v>
       </c>
       <c r="V44" t="n">
-        <v>1801.754437569962</v>
+        <v>896.4649846916732</v>
       </c>
       <c r="W44" t="n">
-        <v>1801.754437569962</v>
+        <v>512.7046838268418</v>
       </c>
       <c r="X44" t="n">
-        <v>1801.754437569962</v>
+        <v>512.7046838268418</v>
       </c>
       <c r="Y44" t="n">
-        <v>1801.754437569962</v>
+        <v>512.7046838268418</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.2095746589395</v>
+        <v>636.7329926647287</v>
       </c>
       <c r="C45" t="n">
-        <v>488.2145034078852</v>
+        <v>502.7379214136744</v>
       </c>
       <c r="D45" t="n">
-        <v>371.3173456272776</v>
+        <v>430.8560730645404</v>
       </c>
       <c r="E45" t="n">
-        <v>250.8245296196056</v>
+        <v>310.3632570568684</v>
       </c>
       <c r="F45" t="n">
-        <v>141.8646498021101</v>
+        <v>201.403377239373</v>
       </c>
       <c r="G45" t="n">
-        <v>36.03508875139924</v>
+        <v>95.57381618866214</v>
       </c>
       <c r="H45" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="I45" t="n">
-        <v>36.03508875139924</v>
+        <v>54.86182750109191</v>
       </c>
       <c r="J45" t="n">
-        <v>336.3126562147967</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K45" t="n">
-        <v>464.7194372055897</v>
+        <v>483.5461759552823</v>
       </c>
       <c r="L45" t="n">
-        <v>849.1406948242684</v>
+        <v>674.9655685462451</v>
       </c>
       <c r="M45" t="n">
-        <v>1080.357628918228</v>
+        <v>906.182502640205</v>
       </c>
       <c r="N45" t="n">
-        <v>1323.529688441073</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O45" t="n">
-        <v>1536.985598331011</v>
+        <v>1362.810472052987</v>
       </c>
       <c r="P45" t="n">
-        <v>1700.472892794593</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q45" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R45" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S45" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.321165289599</v>
       </c>
       <c r="T45" t="n">
-        <v>1647.09041126802</v>
+        <v>1560.657138987657</v>
       </c>
       <c r="U45" t="n">
-        <v>1449.815952487485</v>
+        <v>1363.382680207123</v>
       </c>
       <c r="V45" t="n">
-        <v>1236.104425480519</v>
+        <v>1149.671153200157</v>
       </c>
       <c r="W45" t="n">
-        <v>1098.240548791803</v>
+        <v>936.4379849364853</v>
       </c>
       <c r="X45" t="n">
-        <v>921.9145669306961</v>
+        <v>936.4379849364853</v>
       </c>
       <c r="Y45" t="n">
-        <v>762.5126072945261</v>
+        <v>777.0360253003154</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>123.1213482153726</v>
+        <v>538.0370106482617</v>
       </c>
       <c r="C46" t="n">
-        <v>123.1213482153726</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="D46" t="n">
-        <v>123.1213482153726</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="E46" t="n">
-        <v>123.1213482153726</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="F46" t="n">
-        <v>123.1213482153726</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="G46" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="H46" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="I46" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="J46" t="n">
-        <v>52.53617997680177</v>
+        <v>52.53617997680178</v>
       </c>
       <c r="K46" t="n">
         <v>111.5999293467746</v>
       </c>
       <c r="L46" t="n">
-        <v>462.6758375186919</v>
+        <v>513.2721529075728</v>
       </c>
       <c r="M46" t="n">
-        <v>901.4218831196202</v>
+        <v>607.0518489942158</v>
       </c>
       <c r="N46" t="n">
-        <v>1328.188307080744</v>
+        <v>1033.81827295534</v>
       </c>
       <c r="O46" t="n">
-        <v>1722.536713467443</v>
+        <v>1428.166679342039</v>
       </c>
       <c r="P46" t="n">
-        <v>1782.648915084767</v>
+        <v>1749.176364432481</v>
       </c>
       <c r="Q46" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R46" t="n">
-        <v>1801.754437569962</v>
+        <v>1760.229876346688</v>
       </c>
       <c r="S46" t="n">
-        <v>1657.292909245554</v>
+        <v>1760.229876346688</v>
       </c>
       <c r="T46" t="n">
-        <v>1421.90139501757</v>
+        <v>1524.838362118704</v>
       </c>
       <c r="U46" t="n">
-        <v>1139.156318518528</v>
+        <v>1242.093285619662</v>
       </c>
       <c r="V46" t="n">
-        <v>865.2705734580502</v>
+        <v>1004.806381533432</v>
       </c>
       <c r="W46" t="n">
-        <v>586.2009089669245</v>
+        <v>725.7367170423061</v>
       </c>
       <c r="X46" t="n">
-        <v>347.8570468266079</v>
+        <v>725.7367170423061</v>
       </c>
       <c r="Y46" t="n">
-        <v>123.1213482153726</v>
+        <v>725.7367170423061</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0.7485506060653719</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>80.61181609495651</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>360.4692637053963</v>
+        <v>106.0930793441765</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>267.1499434645049</v>
+        <v>285.8849435310356</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>87.07617151620451</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.07617151620369</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9087,7 +9087,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9099,13 +9099,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O16" t="n">
-        <v>318.2573327462026</v>
+        <v>46.74597431789337</v>
       </c>
       <c r="P16" t="n">
-        <v>72.8358303120894</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>175.9344709879019</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>87.07617151620369</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>223.4118198802752</v>
+        <v>266.043228127416</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
         <v>335.3881832803894</v>
@@ -9339,10 +9339,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>155.7811516842083</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>285.2999281161444</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>352.2227803286548</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>95.17706553820364</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>200.3852850654609</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>87.07617151620437</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>175.9344709879024</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>266.0432281274161</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
         <v>348.4508580952379</v>
@@ -9810,7 +9810,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>318.2573327462026</v>
+        <v>267.1499434645049</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>87.07617151620411</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>87.0761715162042</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>57.67939622265445</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>72.83583031208968</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7485506060653719</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>80.61181609495611</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>360.4692637053962</v>
+        <v>87.0761715162042</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
-        <v>266.0432281274157</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>318.2573327462026</v>
+        <v>285.8849435310356</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>352.2227803286542</v>
+        <v>352.2227803286546</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>127.5603514692842</v>
       </c>
       <c r="L34" t="n">
-        <v>266.0432281274157</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
@@ -10521,13 +10521,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.76545843403778</v>
+        <v>0.7485506060653719</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>216.8861507117228</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.3197217889592</v>
+        <v>194.9513788158746</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>33.81065722453171</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>156.7313392453209</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>175.9344709879018</v>
+        <v>87.0761715162042</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>200.3852850654598</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4508580952379</v>
+        <v>33.81065722453172</v>
       </c>
       <c r="N40" t="n">
         <v>335.3881832803894</v>
@@ -10998,7 +10998,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.748550606065379</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>360.4692637053963</v>
+        <v>87.07617151620371</v>
       </c>
       <c r="R42" t="n">
-        <v>80.61181609495688</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>266.0432281274164</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11232,13 +11232,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>182.72933115353</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.748550606065379</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>194.9513788158748</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>87.07617151620371</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>266.0432281274164</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>335.3881832803894</v>
@@ -11472,10 +11472,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>33.81065722453128</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.99499061398264</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>234.8600335916755</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23323,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>313.9983603014537</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>44.56515633715853</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>153.1173860389223</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>66.01049234073193</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>22.20137242693701</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0830778107569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>176.0766128408815</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.99499061398262</v>
+        <v>50.66231865689092</v>
       </c>
       <c r="T14" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.3180969423526</v>
@@ -23582,10 +23582,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>14.27105097450021</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>85.56893955755871</v>
       </c>
       <c r="T15" t="n">
-        <v>133.5589388220957</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>75.97250800000367</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>139.5473206610679</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.10931561104034</v>
       </c>
       <c r="S16" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>118.9075768085099</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>170.376935580907</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>183.7739345341477</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.3180969423526</v>
@@ -23816,19 +23816,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>55.41327277656047</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>17.83075261929437</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>41.10931561104033</v>
       </c>
       <c r="S19" t="n">
-        <v>167.7412420701844</v>
+        <v>60.67648111798768</v>
       </c>
       <c r="T19" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>26.611603078852</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>389.7091090803701</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23980,16 +23980,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I20" t="n">
-        <v>2.701627844419832</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>113.4323457232067</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>61.31993833984632</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>114.3566129394506</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24132,7 +24132,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>233.0375990857039</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9176257340516</v>
+        <v>45.83932194478066</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>43.05187369505518</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H23" t="n">
-        <v>10.71589243985428</v>
+        <v>212.2891036909168</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>84.99499061398264</v>
       </c>
       <c r="T23" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24296,10 +24296,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>25.68865780277505</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>133.5589388220958</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.6146493334786</v>
+        <v>143.7652852506152</v>
       </c>
       <c r="H25" t="n">
         <v>139.5473206610679</v>
       </c>
       <c r="I25" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>41.10931561104034</v>
       </c>
       <c r="S25" t="n">
-        <v>44.70473622882837</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>285.807623447931</v>
+        <v>187.7934237134972</v>
       </c>
       <c r="I26" t="n">
         <v>2.701627844419832</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.99499061398264</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U26" t="n">
-        <v>59.53473983916444</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24533,10 +24533,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>21.28453590753348</v>
+        <v>52.31425719744379</v>
       </c>
       <c r="H27" t="n">
         <v>58.94334016289027</v>
@@ -24609,19 +24609,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.1450569533827</v>
+        <v>69.61671773093414</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.99499061398264</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24745,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>210.2270220546746</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.6235675748637</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24776,7 +24776,7 @@
         <v>104.7712654402038</v>
       </c>
       <c r="H30" t="n">
-        <v>58.94334016289027</v>
+        <v>28.78767338189195</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>55.41327277656102</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24852,7 +24852,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>57.54988838128202</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H31" t="n">
         <v>139.5473206610679</v>
@@ -24888,10 +24888,10 @@
         <v>41.10931561104034</v>
       </c>
       <c r="S31" t="n">
-        <v>167.7412420701844</v>
+        <v>124.331641489791</v>
       </c>
       <c r="T31" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>402.4936277569416</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.99499061398264</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U32" t="n">
-        <v>136.3191370553332</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>266.2743114971424</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>58.94334016289027</v>
+        <v>7.553466642758018</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25052,10 +25052,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>55.41327277656106</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>175.0198900086309</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>86.2153968693336</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.10931561104034</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U34" t="n">
-        <v>124.3316414897914</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>179.600465985738</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.701627844419832</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>84.99499061398264</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>68.48132889995622</v>
       </c>
     </row>
     <row r="36">
@@ -25250,7 +25250,7 @@
         <v>104.7712654402038</v>
       </c>
       <c r="H36" t="n">
-        <v>58.94334016289027</v>
+        <v>28.78767338189195</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>55.41327277656058</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>99.91878425810843</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>86.2153968693336</v>
@@ -25362,19 +25362,19 @@
         <v>41.10931561104034</v>
       </c>
       <c r="S37" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.0375990857039</v>
+        <v>22.5271836423656</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.701627844419832</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>65.53692726330567</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>341.5541726538982</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25481,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>55.4132727765609</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7712654402038</v>
+        <v>74.61559865920546</v>
       </c>
       <c r="H39" t="n">
         <v>58.94334016289027</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>164.6146493334786</v>
@@ -25569,7 +25569,7 @@
         <v>139.5473206610679</v>
       </c>
       <c r="I40" t="n">
-        <v>86.2153968693336</v>
+        <v>39.46226374488888</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.10931561104034</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U40" t="n">
-        <v>101.9745712791279</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>262.1415635597558</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>65.5369272633061</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.701627844419846</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.99499061398265</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.3180969423526</v>
@@ -25693,10 +25693,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25712,19 +25712,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>44.45635201396296</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H42" t="n">
-        <v>58.94334016289028</v>
+        <v>6.486331920130716</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>125.9728381335076</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25803,7 +25803,7 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H43" t="n">
-        <v>139.547320661068</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I43" t="n">
         <v>86.2153968693336</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.10931561104035</v>
+        <v>41.10931561104034</v>
       </c>
       <c r="S43" t="n">
-        <v>167.7412420701845</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>71.22573857856926</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>294.2179970237416</v>
+        <v>339.4113243445179</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>285.807623447931</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.99499061398265</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>44.5651563371588</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>58.94334016289028</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.56893955755872</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26006,10 +26006,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>74.6155986592058</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26034,16 +26034,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.547320661068</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.10931561104035</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.72432902902104</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>36.23285256450498</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>412223.5147516116</v>
+        <v>412223.5147516117</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>412223.5147516115</v>
+        <v>412223.5147516117</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>412223.5147516114</v>
+        <v>412223.5147516116</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>412223.5147516116</v>
+        <v>412223.5147516115</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>412223.5147516115</v>
+        <v>412223.5147516116</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>412223.5147516117</v>
+        <v>412223.5147516115</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>453606.7885146523</v>
+      </c>
+      <c r="C2" t="n">
         <v>453606.7885146522</v>
-      </c>
-      <c r="C2" t="n">
-        <v>453606.7885146521</v>
       </c>
       <c r="D2" t="n">
         <v>453606.7885146521</v>
@@ -26328,10 +26328,10 @@
         <v>259245.5163530568</v>
       </c>
       <c r="G2" t="n">
+        <v>259245.5163530568</v>
+      </c>
+      <c r="H2" t="n">
         <v>259245.5163530569</v>
-      </c>
-      <c r="H2" t="n">
-        <v>259245.5163530568</v>
       </c>
       <c r="I2" t="n">
         <v>259245.5163530568</v>
@@ -26340,7 +26340,7 @@
         <v>259245.5163530568</v>
       </c>
       <c r="K2" t="n">
-        <v>259245.5163530568</v>
+        <v>259245.5163530569</v>
       </c>
       <c r="L2" t="n">
         <v>259245.5163530567</v>
@@ -26355,7 +26355,7 @@
         <v>259245.5163530568</v>
       </c>
       <c r="P2" t="n">
-        <v>259245.5163530568</v>
+        <v>259245.5163530569</v>
       </c>
     </row>
     <row r="3">
@@ -26429,37 +26429,37 @@
         <v>23745.83874464411</v>
       </c>
       <c r="F4" t="n">
-        <v>23745.83874464409</v>
+        <v>23745.83874464412</v>
       </c>
       <c r="G4" t="n">
         <v>23745.8387446441</v>
       </c>
       <c r="H4" t="n">
+        <v>23745.83874464412</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23745.83874464412</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23745.83874464411</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23745.83874464411</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23745.83874464411</v>
+      </c>
+      <c r="M4" t="n">
         <v>23745.8387446441</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
         <v>23745.83874464411</v>
       </c>
-      <c r="J4" t="n">
-        <v>23745.8387446441</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>23745.83874464409</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>23745.83874464409</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23745.83874464411</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23745.83874464409</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23745.83874464412</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23745.83874464411</v>
       </c>
     </row>
     <row r="5">
@@ -26496,16 +26496,16 @@
         <v>39031.33714783083</v>
       </c>
       <c r="K5" t="n">
-        <v>39031.33714783082</v>
+        <v>39031.33714783083</v>
       </c>
       <c r="L5" t="n">
-        <v>39031.33714783082</v>
+        <v>39031.33714783083</v>
       </c>
       <c r="M5" t="n">
         <v>39031.33714783083</v>
       </c>
       <c r="N5" t="n">
-        <v>39031.33714783082</v>
+        <v>39031.33714783083</v>
       </c>
       <c r="O5" t="n">
         <v>39031.33714783082</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59406.42995762784</v>
+        <v>59397.6302719985</v>
       </c>
       <c r="C6" t="n">
-        <v>59406.42995762773</v>
+        <v>59397.63027199844</v>
       </c>
       <c r="D6" t="n">
-        <v>59406.42995762773</v>
+        <v>59397.63027199832</v>
       </c>
       <c r="E6" t="n">
-        <v>-367167.7905991975</v>
+        <v>-367870.737685404</v>
       </c>
       <c r="F6" t="n">
-        <v>196468.3404605819</v>
+        <v>195765.3933743753</v>
       </c>
       <c r="G6" t="n">
-        <v>196468.3404605819</v>
+        <v>195765.3933743753</v>
       </c>
       <c r="H6" t="n">
-        <v>196468.3404605818</v>
+        <v>195765.3933743754</v>
       </c>
       <c r="I6" t="n">
-        <v>196468.3404605818</v>
+        <v>195765.3933743753</v>
       </c>
       <c r="J6" t="n">
-        <v>196468.3404605818</v>
+        <v>195765.3933743754</v>
       </c>
       <c r="K6" t="n">
-        <v>196468.3404605819</v>
+        <v>195765.3933743754</v>
       </c>
       <c r="L6" t="n">
-        <v>196468.3404605818</v>
+        <v>195765.3933743752</v>
       </c>
       <c r="M6" t="n">
-        <v>84217.23724553568</v>
+        <v>83514.29015932919</v>
       </c>
       <c r="N6" t="n">
-        <v>196468.3404605819</v>
+        <v>195765.3933743754</v>
       </c>
       <c r="O6" t="n">
-        <v>196468.3404605819</v>
+        <v>195765.3933743753</v>
       </c>
       <c r="P6" t="n">
-        <v>196468.3404605819</v>
+        <v>195765.3933743754</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>534.1591604021745</v>
       </c>
       <c r="F3" t="n">
-        <v>534.1591604021746</v>
+        <v>534.1591604021745</v>
       </c>
       <c r="G3" t="n">
         <v>534.1591604021746</v>
@@ -26776,10 +26776,10 @@
         <v>534.1591604021745</v>
       </c>
       <c r="O3" t="n">
-        <v>534.1591604021744</v>
+        <v>534.1591604021745</v>
       </c>
       <c r="P3" t="n">
-        <v>534.1591604021744</v>
+        <v>534.1591604021745</v>
       </c>
     </row>
     <row r="4">
@@ -26816,16 +26816,16 @@
         <v>450.4386093924905</v>
       </c>
       <c r="K4" t="n">
-        <v>450.4386093924904</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="L4" t="n">
-        <v>450.4386093924904</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="M4" t="n">
         <v>450.4386093924905</v>
       </c>
       <c r="N4" t="n">
-        <v>450.4386093924904</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="O4" t="n">
         <v>450.4386093924904</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4386093924904</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>21.99178895062821</v>
       </c>
       <c r="I14" t="n">
-        <v>82.78661721167775</v>
+        <v>82.78661721167774</v>
       </c>
       <c r="J14" t="n">
         <v>182.2556423725993</v>
@@ -32004,31 +32004,31 @@
         <v>273.153963015108</v>
       </c>
       <c r="L14" t="n">
-        <v>338.8716450458942</v>
+        <v>338.8716450458941</v>
       </c>
       <c r="M14" t="n">
-        <v>377.05999868932</v>
+        <v>377.0599986893199</v>
       </c>
       <c r="N14" t="n">
-        <v>383.1612236722052</v>
+        <v>383.161223672205</v>
       </c>
       <c r="O14" t="n">
-        <v>361.8082783405504</v>
+        <v>361.8082783405503</v>
       </c>
       <c r="P14" t="n">
-        <v>308.7949948332994</v>
+        <v>308.7949948332993</v>
       </c>
       <c r="Q14" t="n">
         <v>231.8921810367048</v>
       </c>
       <c r="R14" t="n">
-        <v>134.8899511944246</v>
+        <v>134.8899511944245</v>
       </c>
       <c r="S14" t="n">
         <v>48.93327383985751</v>
       </c>
       <c r="T14" t="n">
-        <v>9.400127536323694</v>
+        <v>9.400127536323692</v>
       </c>
       <c r="U14" t="n">
         <v>0.1717898807323575</v>
@@ -32074,13 +32074,13 @@
         <v>11.09640067175084</v>
       </c>
       <c r="I15" t="n">
-        <v>39.55801329393464</v>
+        <v>39.55801329393463</v>
       </c>
       <c r="J15" t="n">
         <v>108.550212020974</v>
       </c>
       <c r="K15" t="n">
-        <v>185.5296019672346</v>
+        <v>185.5296019672345</v>
       </c>
       <c r="L15" t="n">
         <v>249.4674456199024</v>
@@ -32092,25 +32092,25 @@
         <v>298.8217363461184</v>
       </c>
       <c r="O15" t="n">
-        <v>273.3635091918563</v>
+        <v>273.3635091918562</v>
       </c>
       <c r="P15" t="n">
         <v>219.3983162791498</v>
       </c>
       <c r="Q15" t="n">
-        <v>146.661964191933</v>
+        <v>146.6619641919329</v>
       </c>
       <c r="R15" t="n">
-        <v>71.33544410050176</v>
+        <v>71.33544410050175</v>
       </c>
       <c r="S15" t="n">
-        <v>21.34117022927555</v>
+        <v>21.34117022927554</v>
       </c>
       <c r="T15" t="n">
-        <v>4.631059135939607</v>
+        <v>4.631059135939606</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07558856043427002</v>
+        <v>0.07558856043427001</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9632378302334296</v>
+        <v>0.9632378302334293</v>
       </c>
       <c r="H16" t="n">
-        <v>8.564059981529953</v>
+        <v>8.564059981529951</v>
       </c>
       <c r="I16" t="n">
-        <v>28.96718856738351</v>
+        <v>28.9671885673835</v>
       </c>
       <c r="J16" t="n">
-        <v>68.10091459750346</v>
+        <v>68.10091459750345</v>
       </c>
       <c r="K16" t="n">
         <v>111.9107224580293</v>
       </c>
       <c r="L16" t="n">
-        <v>143.2071952330683</v>
+        <v>143.2071952330682</v>
       </c>
       <c r="M16" t="n">
         <v>150.9919082428638</v>
@@ -32174,22 +32174,22 @@
         <v>136.1492889497215</v>
       </c>
       <c r="P16" t="n">
-        <v>116.4992372129595</v>
+        <v>116.4992372129594</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.65803322072837</v>
+        <v>80.65803322072834</v>
       </c>
       <c r="R16" t="n">
-        <v>43.31067553031401</v>
+        <v>43.310675530314</v>
       </c>
       <c r="S16" t="n">
         <v>16.7866083687044</v>
       </c>
       <c r="T16" t="n">
-        <v>4.115652547361016</v>
+        <v>4.115652547361015</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05254024528545986</v>
+        <v>0.05254024528545984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.147373509154468</v>
+        <v>2.147373509154469</v>
       </c>
       <c r="H41" t="n">
         <v>21.99178895062821</v>
       </c>
       <c r="I41" t="n">
-        <v>82.78661721167772</v>
+        <v>82.78661721167774</v>
       </c>
       <c r="J41" t="n">
-        <v>182.2556423725992</v>
+        <v>182.2556423725994</v>
       </c>
       <c r="K41" t="n">
-        <v>273.1539630151079</v>
+        <v>273.153963015108</v>
       </c>
       <c r="L41" t="n">
         <v>338.8716450458941</v>
       </c>
       <c r="M41" t="n">
-        <v>377.0599986893198</v>
+        <v>377.0599986893199</v>
       </c>
       <c r="N41" t="n">
         <v>383.161223672205</v>
       </c>
       <c r="O41" t="n">
-        <v>361.8082783405502</v>
+        <v>361.8082783405503</v>
       </c>
       <c r="P41" t="n">
-        <v>308.7949948332992</v>
+        <v>308.7949948332993</v>
       </c>
       <c r="Q41" t="n">
         <v>231.8921810367048</v>
       </c>
       <c r="R41" t="n">
-        <v>134.8899511944251</v>
+        <v>134.8899511944245</v>
       </c>
       <c r="S41" t="n">
-        <v>48.9332738398575</v>
+        <v>48.93327383985751</v>
       </c>
       <c r="T41" t="n">
-        <v>9.400127536323689</v>
+        <v>9.400127536323692</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1717898807323574</v>
+        <v>0.1717898807323575</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.148946118600903</v>
+        <v>1.148946118600904</v>
       </c>
       <c r="H42" t="n">
-        <v>11.09640067175083</v>
+        <v>11.09640067175084</v>
       </c>
       <c r="I42" t="n">
-        <v>39.55801329393462</v>
+        <v>39.55801329393463</v>
       </c>
       <c r="J42" t="n">
         <v>108.550212020974</v>
@@ -34216,34 +34216,34 @@
         <v>185.5296019672345</v>
       </c>
       <c r="L42" t="n">
-        <v>249.4674456199023</v>
+        <v>249.4674456199024</v>
       </c>
       <c r="M42" t="n">
-        <v>291.116742419185</v>
+        <v>291.1167424191851</v>
       </c>
       <c r="N42" t="n">
-        <v>298.8217363461183</v>
+        <v>298.8217363461184</v>
       </c>
       <c r="O42" t="n">
         <v>273.3635091918562</v>
       </c>
       <c r="P42" t="n">
-        <v>219.3983162791497</v>
+        <v>219.3983162791498</v>
       </c>
       <c r="Q42" t="n">
         <v>146.6619641919329</v>
       </c>
       <c r="R42" t="n">
-        <v>71.33544410050173</v>
+        <v>71.33544410050175</v>
       </c>
       <c r="S42" t="n">
         <v>21.34117022927554</v>
       </c>
       <c r="T42" t="n">
-        <v>4.631059135939605</v>
+        <v>4.631059135939606</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07558856043426999</v>
+        <v>0.07558856043427001</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9632378302334291</v>
+        <v>0.9632378302334293</v>
       </c>
       <c r="H43" t="n">
-        <v>8.564059981529949</v>
+        <v>8.564059981529951</v>
       </c>
       <c r="I43" t="n">
         <v>28.9671885673835</v>
       </c>
       <c r="J43" t="n">
-        <v>68.10091459750343</v>
+        <v>68.10091459750345</v>
       </c>
       <c r="K43" t="n">
         <v>111.9107224580293</v>
@@ -34310,19 +34310,19 @@
         <v>116.4992372129594</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.65803322072833</v>
+        <v>80.65803322072834</v>
       </c>
       <c r="R43" t="n">
-        <v>43.31067553031399</v>
+        <v>43.310675530314</v>
       </c>
       <c r="S43" t="n">
-        <v>16.78660836870439</v>
+        <v>16.7866083687044</v>
       </c>
       <c r="T43" t="n">
-        <v>4.115652547361014</v>
+        <v>4.115652547361015</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05254024528545983</v>
+        <v>0.05254024528545984</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.147373509154468</v>
+        <v>2.147373509154469</v>
       </c>
       <c r="H44" t="n">
         <v>21.99178895062821</v>
       </c>
       <c r="I44" t="n">
-        <v>82.78661721167772</v>
+        <v>82.78661721167774</v>
       </c>
       <c r="J44" t="n">
-        <v>182.2556423725992</v>
+        <v>182.2556423725993</v>
       </c>
       <c r="K44" t="n">
-        <v>273.1539630151079</v>
+        <v>273.153963015108</v>
       </c>
       <c r="L44" t="n">
         <v>338.8716450458941</v>
       </c>
       <c r="M44" t="n">
-        <v>377.0599986893198</v>
+        <v>377.0599986893199</v>
       </c>
       <c r="N44" t="n">
         <v>383.161223672205</v>
       </c>
       <c r="O44" t="n">
-        <v>361.8082783405502</v>
+        <v>361.8082783405503</v>
       </c>
       <c r="P44" t="n">
-        <v>308.7949948332992</v>
+        <v>308.7949948332993</v>
       </c>
       <c r="Q44" t="n">
         <v>231.8921810367048</v>
@@ -34395,13 +34395,13 @@
         <v>134.8899511944245</v>
       </c>
       <c r="S44" t="n">
-        <v>48.9332738398575</v>
+        <v>48.93327383985751</v>
       </c>
       <c r="T44" t="n">
-        <v>9.400127536323689</v>
+        <v>9.400127536323692</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1717898807323574</v>
+        <v>0.1717898807323575</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.148946118600903</v>
+        <v>1.148946118600904</v>
       </c>
       <c r="H45" t="n">
-        <v>11.09640067175083</v>
+        <v>11.09640067175084</v>
       </c>
       <c r="I45" t="n">
-        <v>39.55801329393462</v>
+        <v>39.55801329393463</v>
       </c>
       <c r="J45" t="n">
         <v>108.550212020974</v>
@@ -34453,34 +34453,34 @@
         <v>185.5296019672345</v>
       </c>
       <c r="L45" t="n">
-        <v>249.4674456199023</v>
+        <v>249.4674456199024</v>
       </c>
       <c r="M45" t="n">
-        <v>291.116742419185</v>
+        <v>291.1167424191851</v>
       </c>
       <c r="N45" t="n">
-        <v>298.8217363461183</v>
+        <v>298.8217363461184</v>
       </c>
       <c r="O45" t="n">
         <v>273.3635091918562</v>
       </c>
       <c r="P45" t="n">
-        <v>219.3983162791497</v>
+        <v>219.3983162791498</v>
       </c>
       <c r="Q45" t="n">
         <v>146.6619641919329</v>
       </c>
       <c r="R45" t="n">
-        <v>71.33544410050173</v>
+        <v>71.33544410050175</v>
       </c>
       <c r="S45" t="n">
         <v>21.34117022927554</v>
       </c>
       <c r="T45" t="n">
-        <v>4.631059135939605</v>
+        <v>4.631059135939606</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07558856043426999</v>
+        <v>0.07558856043427001</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9632378302334291</v>
+        <v>0.9632378302334293</v>
       </c>
       <c r="H46" t="n">
-        <v>8.564059981529949</v>
+        <v>8.564059981529951</v>
       </c>
       <c r="I46" t="n">
         <v>28.9671885673835</v>
       </c>
       <c r="J46" t="n">
-        <v>68.10091459750343</v>
+        <v>68.10091459750345</v>
       </c>
       <c r="K46" t="n">
         <v>111.9107224580293</v>
@@ -34547,19 +34547,19 @@
         <v>116.4992372129594</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.65803322072833</v>
+        <v>80.65803322072834</v>
       </c>
       <c r="R46" t="n">
-        <v>43.31067553031399</v>
+        <v>43.310675530314</v>
       </c>
       <c r="S46" t="n">
-        <v>16.78660836870439</v>
+        <v>16.7866083687044</v>
       </c>
       <c r="T46" t="n">
-        <v>4.115652547361014</v>
+        <v>4.115652547361015</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05254024528545983</v>
+        <v>0.05254024528545984</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>57.18097322097397</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K12" t="n">
         <v>129.7038191826191</v>
@@ -35497,7 +35497,7 @@
         <v>193.3529218090533</v>
       </c>
       <c r="M12" t="n">
-        <v>314.1642747757242</v>
+        <v>233.5524586807676</v>
       </c>
       <c r="N12" t="n">
         <v>245.6283429523684</v>
@@ -35509,10 +35509,10 @@
         <v>165.138681276346</v>
       </c>
       <c r="Q12" t="n">
-        <v>450.4386093924905</v>
+        <v>196.0624250312707</v>
       </c>
       <c r="R12" t="n">
-        <v>12.33524499509634</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.66776891454803</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K13" t="n">
-        <v>59.66035289896249</v>
+        <v>268.0241848037242</v>
       </c>
       <c r="L13" t="n">
         <v>405.729518748281</v>
       </c>
       <c r="M13" t="n">
-        <v>443.1778238393217</v>
+        <v>94.72696574408377</v>
       </c>
       <c r="N13" t="n">
-        <v>431.0771959203275</v>
+        <v>95.68901263993807</v>
       </c>
       <c r="O13" t="n">
-        <v>347.22433434123</v>
+        <v>365.9593344077607</v>
       </c>
       <c r="P13" t="n">
-        <v>60.71939557305466</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.29850756080278</v>
+        <v>146.8479623141736</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>108.9320510392914</v>
+        <v>108.9320510392913</v>
       </c>
       <c r="K14" t="n">
         <v>184.0175733418909</v>
       </c>
       <c r="L14" t="n">
-        <v>243.3862469830494</v>
+        <v>243.3862469830493</v>
       </c>
       <c r="M14" t="n">
         <v>283.7697742322745</v>
       </c>
       <c r="N14" t="n">
-        <v>290.2489329155858</v>
+        <v>290.2489329155857</v>
       </c>
       <c r="O14" t="n">
-        <v>268.6185027147673</v>
+        <v>268.6185027147671</v>
       </c>
       <c r="P14" t="n">
         <v>215.1456315524152</v>
@@ -35670,7 +35670,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R14" t="n">
-        <v>47.57780837970104</v>
+        <v>47.57780837970101</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.01690782797241</v>
+        <v>19.0169078279724</v>
       </c>
       <c r="J15" t="n">
-        <v>303.3106742054521</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K15" t="n">
-        <v>129.7038191826192</v>
+        <v>129.7038191826191</v>
       </c>
       <c r="L15" t="n">
-        <v>193.3529218090534</v>
+        <v>193.3529218090533</v>
       </c>
       <c r="M15" t="n">
-        <v>233.5524586807677</v>
+        <v>233.5524586807676</v>
       </c>
       <c r="N15" t="n">
         <v>245.6283429523684</v>
       </c>
       <c r="O15" t="n">
-        <v>215.6120301918563</v>
+        <v>215.6120301918562</v>
       </c>
       <c r="P15" t="n">
-        <v>165.1386812763461</v>
+        <v>252.2148527925505</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.0455172032979</v>
+        <v>89.9693456870942</v>
       </c>
       <c r="R15" t="n">
         <v>101.1935444667946</v>
@@ -35807,10 +35807,10 @@
         <v>82.32571197650398</v>
       </c>
       <c r="K16" t="n">
-        <v>59.66035289896251</v>
+        <v>268.0241848037242</v>
       </c>
       <c r="L16" t="n">
-        <v>88.57890133916675</v>
+        <v>88.57890133916672</v>
       </c>
       <c r="M16" t="n">
         <v>443.1778238393217</v>
@@ -35819,13 +35819,13 @@
         <v>431.0771959203275</v>
       </c>
       <c r="O16" t="n">
-        <v>398.3317236229277</v>
+        <v>126.8203651946185</v>
       </c>
       <c r="P16" t="n">
-        <v>133.5552258851441</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q16" t="n">
-        <v>146.8479623141737</v>
+        <v>19.29850756080278</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>215.6120301918563</v>
       </c>
       <c r="P18" t="n">
-        <v>341.073152264248</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R18" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,10 +36047,10 @@
         <v>59.66035289896251</v>
       </c>
       <c r="L19" t="n">
-        <v>311.990721219442</v>
+        <v>354.6221294665827</v>
       </c>
       <c r="M19" t="n">
-        <v>94.7269657440838</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N19" t="n">
         <v>431.0771959203275</v>
@@ -36059,10 +36059,10 @@
         <v>398.3317236229277</v>
       </c>
       <c r="P19" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q19" t="n">
-        <v>146.8479623141737</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>129.7038191826191</v>
       </c>
       <c r="L21" t="n">
-        <v>349.1340734932616</v>
+        <v>193.3529218090533</v>
       </c>
       <c r="M21" t="n">
         <v>233.5524586807676</v>
@@ -36217,13 +36217,13 @@
         <v>215.6120301918562</v>
       </c>
       <c r="P21" t="n">
-        <v>450.4386093924905</v>
+        <v>165.138681276346</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.9693456870942</v>
+        <v>442.192126015749</v>
       </c>
       <c r="R21" t="n">
-        <v>12.33524499509634</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>82.32571197650398</v>
       </c>
       <c r="K22" t="n">
-        <v>268.0241848037242</v>
+        <v>59.66035289896249</v>
       </c>
       <c r="L22" t="n">
-        <v>405.729518748281</v>
+        <v>88.57890133916672</v>
       </c>
       <c r="M22" t="n">
-        <v>189.9040312822874</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N22" t="n">
-        <v>95.68901263993807</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O22" t="n">
         <v>398.3317236229277</v>
       </c>
       <c r="P22" t="n">
-        <v>324.2522071620629</v>
+        <v>261.1046806385156</v>
       </c>
       <c r="Q22" t="n">
         <v>19.29850756080278</v>
@@ -36439,7 +36439,7 @@
         <v>303.310674205452</v>
       </c>
       <c r="K24" t="n">
-        <v>129.7038191826191</v>
+        <v>216.7799906988235</v>
       </c>
       <c r="L24" t="n">
         <v>193.3529218090533</v>
@@ -36454,13 +36454,13 @@
         <v>215.6120301918562</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0731522642484</v>
+        <v>165.138681276346</v>
       </c>
       <c r="Q24" t="n">
         <v>89.9693456870942</v>
       </c>
       <c r="R24" t="n">
-        <v>12.33524499509634</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>59.66035289896249</v>
       </c>
       <c r="L25" t="n">
-        <v>354.6221294665829</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M25" t="n">
         <v>443.1778238393217</v>
@@ -36530,7 +36530,7 @@
         <v>431.0771959203275</v>
       </c>
       <c r="O25" t="n">
-        <v>398.3317236229277</v>
+        <v>347.22433434123</v>
       </c>
       <c r="P25" t="n">
         <v>60.71939557305466</v>
@@ -36685,7 +36685,7 @@
         <v>233.5524586807676</v>
       </c>
       <c r="N27" t="n">
-        <v>332.7045144685725</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O27" t="n">
         <v>215.6120301918562</v>
@@ -36694,7 +36694,7 @@
         <v>165.138681276346</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.9693456870942</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R27" t="n">
         <v>101.1935444667946</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.34716513720247</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K28" t="n">
-        <v>268.0241848037242</v>
+        <v>132.4961832110522</v>
       </c>
       <c r="L28" t="n">
         <v>88.57890133916672</v>
@@ -36773,7 +36773,7 @@
         <v>60.71939557305466</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.29850756080278</v>
+        <v>146.8479623141736</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.0169078279724</v>
       </c>
       <c r="J30" t="n">
-        <v>57.18097322097397</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K30" t="n">
         <v>129.7038191826191</v>
       </c>
       <c r="L30" t="n">
-        <v>273.9647379040094</v>
+        <v>193.3529218090533</v>
       </c>
       <c r="M30" t="n">
         <v>233.5524586807676</v>
@@ -36931,10 +36931,10 @@
         <v>165.138681276346</v>
       </c>
       <c r="Q30" t="n">
-        <v>450.4386093924904</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R30" t="n">
-        <v>12.33524499509634</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16.66776891454803</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K31" t="n">
-        <v>59.66035289896249</v>
+        <v>268.0241848037242</v>
       </c>
       <c r="L31" t="n">
-        <v>354.6221294665824</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M31" t="n">
-        <v>443.1778238393217</v>
+        <v>94.72696574408377</v>
       </c>
       <c r="N31" t="n">
-        <v>431.0771959203275</v>
+        <v>95.68901263993807</v>
       </c>
       <c r="O31" t="n">
-        <v>398.3317236229277</v>
+        <v>365.9593344077607</v>
       </c>
       <c r="P31" t="n">
-        <v>60.71939557305466</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.29850756080278</v>
+        <v>146.8479623141736</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>108.9320510392914</v>
+        <v>108.9320510392913</v>
       </c>
       <c r="K32" t="n">
         <v>184.0175733418909</v>
@@ -37077,7 +37077,7 @@
         <v>243.3862469830493</v>
       </c>
       <c r="M32" t="n">
-        <v>283.7697742322745</v>
+        <v>283.769774232275</v>
       </c>
       <c r="N32" t="n">
         <v>290.2489329155857</v>
@@ -37168,7 +37168,7 @@
         <v>165.138681276346</v>
       </c>
       <c r="Q33" t="n">
-        <v>442.1921260157483</v>
+        <v>442.1921260157488</v>
       </c>
       <c r="R33" t="n">
         <v>101.1935444667946</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.66776891454803</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K34" t="n">
-        <v>59.66035289896249</v>
+        <v>187.2207043682467</v>
       </c>
       <c r="L34" t="n">
-        <v>354.6221294665824</v>
+        <v>88.57890133916672</v>
       </c>
       <c r="M34" t="n">
         <v>443.1778238393217</v>
@@ -37241,13 +37241,13 @@
         <v>431.0771959203275</v>
       </c>
       <c r="O34" t="n">
-        <v>398.3317236229277</v>
+        <v>80.07439087672518</v>
       </c>
       <c r="P34" t="n">
-        <v>60.71939557305466</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.29850756080278</v>
+        <v>146.8479623141736</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.0169078279724</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>57.18097322097397</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K36" t="n">
         <v>129.7038191826191</v>
@@ -37393,7 +37393,7 @@
         <v>193.3529218090533</v>
       </c>
       <c r="M36" t="n">
-        <v>450.4386093924905</v>
+        <v>233.5524586807676</v>
       </c>
       <c r="N36" t="n">
         <v>245.6283429523684</v>
@@ -37405,10 +37405,10 @@
         <v>165.138681276346</v>
       </c>
       <c r="Q36" t="n">
-        <v>206.2890674760534</v>
+        <v>284.9207245029688</v>
       </c>
       <c r="R36" t="n">
-        <v>101.1935444667946</v>
+        <v>12.33524499509634</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>16.66776891454803</v>
       </c>
       <c r="K37" t="n">
-        <v>59.66035289896249</v>
+        <v>93.4710101234942</v>
       </c>
       <c r="L37" t="n">
         <v>405.729518748281</v>
       </c>
       <c r="M37" t="n">
-        <v>443.1778238393217</v>
+        <v>94.72696574408377</v>
       </c>
       <c r="N37" t="n">
-        <v>95.68901263993807</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O37" t="n">
         <v>398.3317236229277</v>
       </c>
       <c r="P37" t="n">
-        <v>217.4507348183755</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q37" t="n">
-        <v>146.8479623141736</v>
+        <v>19.29850756080278</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R38" t="n">
-        <v>47.57780837970101</v>
+        <v>47.57780837970136</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>165.138681276346</v>
       </c>
       <c r="Q39" t="n">
-        <v>265.9038166749961</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R39" t="n">
-        <v>12.33524499509634</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454803</v>
       </c>
       <c r="K40" t="n">
         <v>59.66035289896249</v>
       </c>
       <c r="L40" t="n">
-        <v>288.9641864046265</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M40" t="n">
-        <v>443.1778238393217</v>
+        <v>128.5376229686155</v>
       </c>
       <c r="N40" t="n">
         <v>431.0771959203275</v>
@@ -37718,7 +37718,7 @@
         <v>398.3317236229277</v>
       </c>
       <c r="P40" t="n">
-        <v>60.71939557305466</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q40" t="n">
         <v>19.29850756080278</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>108.9320510392913</v>
+        <v>108.9320510392914</v>
       </c>
       <c r="K41" t="n">
-        <v>184.0175733418908</v>
+        <v>184.0175733418909</v>
       </c>
       <c r="L41" t="n">
         <v>243.3862469830493</v>
       </c>
       <c r="M41" t="n">
-        <v>283.7697742322744</v>
+        <v>283.7697742322745</v>
       </c>
       <c r="N41" t="n">
         <v>290.2489329155857</v>
@@ -37797,13 +37797,13 @@
         <v>268.6185027147671</v>
       </c>
       <c r="P41" t="n">
-        <v>215.145631552415</v>
+        <v>215.1456315524152</v>
       </c>
       <c r="Q41" t="n">
-        <v>141.8583766375527</v>
+        <v>141.8583766375528</v>
       </c>
       <c r="R41" t="n">
-        <v>47.57780837970159</v>
+        <v>47.57780837970101</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>19.0169078279724</v>
       </c>
       <c r="J42" t="n">
-        <v>57.18097322097396</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K42" t="n">
         <v>129.7038191826191</v>
@@ -37870,7 +37870,7 @@
         <v>233.5524586807676</v>
       </c>
       <c r="N42" t="n">
-        <v>245.6283429523683</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O42" t="n">
         <v>215.6120301918562</v>
@@ -37879,10 +37879,10 @@
         <v>165.138681276346</v>
       </c>
       <c r="Q42" t="n">
-        <v>450.4386093924904</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R42" t="n">
-        <v>92.9470610900532</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.66776891454801</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K43" t="n">
-        <v>59.66035289896246</v>
+        <v>268.0241848037242</v>
       </c>
       <c r="L43" t="n">
-        <v>354.6221294665831</v>
+        <v>88.57890133916672</v>
       </c>
       <c r="M43" t="n">
-        <v>443.1778238393216</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N43" t="n">
-        <v>431.0771959203274</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O43" t="n">
-        <v>398.3317236229277</v>
+        <v>262.8037220302551</v>
       </c>
       <c r="P43" t="n">
-        <v>60.71939557305463</v>
+        <v>60.71939557305466</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.29850756080276</v>
+        <v>146.8479623141736</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>108.9320510392913</v>
       </c>
       <c r="K44" t="n">
-        <v>184.0175733418908</v>
+        <v>184.0175733418909</v>
       </c>
       <c r="L44" t="n">
         <v>243.3862469830493</v>
       </c>
       <c r="M44" t="n">
-        <v>283.7697742322744</v>
+        <v>283.7697742322745</v>
       </c>
       <c r="N44" t="n">
         <v>290.2489329155857</v>
@@ -38034,13 +38034,13 @@
         <v>268.6185027147671</v>
       </c>
       <c r="P44" t="n">
-        <v>215.145631552415</v>
+        <v>215.1456315524152</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.8583766375527</v>
+        <v>141.8583766375528</v>
       </c>
       <c r="R44" t="n">
-        <v>47.57780837970098</v>
+        <v>47.57780837970101</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.0169078279724</v>
       </c>
       <c r="J45" t="n">
         <v>303.310674205452</v>
@@ -38101,13 +38101,13 @@
         <v>129.7038191826191</v>
       </c>
       <c r="L45" t="n">
-        <v>388.304300624928</v>
+        <v>193.3529218090533</v>
       </c>
       <c r="M45" t="n">
         <v>233.5524586807676</v>
       </c>
       <c r="N45" t="n">
-        <v>245.6283429523683</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O45" t="n">
         <v>215.6120301918562</v>
@@ -38116,10 +38116,10 @@
         <v>165.138681276346</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.96934568709415</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R45" t="n">
-        <v>12.33524499509632</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.66776891454801</v>
+        <v>16.66776891454803</v>
       </c>
       <c r="K46" t="n">
-        <v>59.66035289896246</v>
+        <v>59.66035289896249</v>
       </c>
       <c r="L46" t="n">
-        <v>354.6221294665831</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M46" t="n">
-        <v>443.1778238393216</v>
+        <v>94.72696574408377</v>
       </c>
       <c r="N46" t="n">
-        <v>431.0771959203274</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O46" t="n">
         <v>398.3317236229277</v>
       </c>
       <c r="P46" t="n">
-        <v>60.71939557305463</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.29850756080276</v>
+        <v>53.10916478533406</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
